--- a/output/fit_clients/fit_round_1.xlsx
+++ b/output/fit_clients/fit_round_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,42 +441,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
         </is>
       </c>
     </row>
@@ -490,27 +475,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9709802679.038013</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003987698932996386</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,28 +500,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6594666645.85048</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004820420979912959</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +525,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6067651415.843006</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003491216764059708</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,27 +550,18 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3904832723.367919</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.00475609510363605</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -626,27 +575,18 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5965930207.677927</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002632131740081796</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -660,28 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6303829227.620863</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009145917121470991</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +625,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7254428086.430936</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002577847442842147</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,27 +650,18 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4764751982.842539</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004229269442534582</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -762,27 +675,18 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3967497937.439472</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004204882979601928</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,27 +700,18 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4995411920.73009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009189208824752683</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -830,28 +725,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7995887223.20616</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001915620295164457</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,27 +750,18 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4208431157.228541</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004464333262561847</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -898,27 +775,18 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8866275023.16427</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003262360995248349</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -932,28 +800,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6059433134.304766</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004683363788778422</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,27 +825,18 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5215795719.358379</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005281816998808634</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1000,27 +850,18 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5382601024.735572</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002967802422802016</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1034,28 +875,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6095287171.359513</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.00108549799699227</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,27 +900,18 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3006760036.823323</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001485169492958347</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1102,27 +925,18 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5776539275.285921</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001226588967988569</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,27 +950,18 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5199580614.263424</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004455741114545513</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1170,27 +975,18 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4759121986.526553</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005225376640867846</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1204,27 +1000,18 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5927213311.099964</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001759823066530041</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1238,27 +1025,18 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5563905523.017335</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004634992539563469</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1272,27 +1050,18 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6793957745.645155</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003001276418639205</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1306,27 +1075,18 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4261931626.325429</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001380424142063894</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1340,27 +1100,18 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5580897177.433025</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002663080614089532</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1374,27 +1125,18 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7065529193.821658</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005553420597256864</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,27 +1150,18 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7897775061.30473</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001226800161109266</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1442,28 +1175,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8646767425.823746</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.00259799996857975</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,27 +1200,18 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5447905919.525312</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002730906444488332</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1510,27 +1225,18 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3367235609.707932</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001114065003274678</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1544,27 +1250,18 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5380919832.337186</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003288488339186806</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,27 +1275,18 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5111563332.941791</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005533329330146097</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1612,28 +1300,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6980255006.359584</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001992965758875755</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,27 +1325,18 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5097234621.203179</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003391830801848026</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1680,27 +1350,18 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4186958312.220137</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.00496198635442788</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1714,27 +1375,18 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3681487327.211971</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004953904490289566</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1748,27 +1400,18 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4390813440.80676</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.00306080626633512</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1782,27 +1425,18 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>4534606019.336778</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004620027397690114</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1816,27 +1450,18 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4884152962.294201</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001204815628878524</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,27 +1475,18 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4862265829.284718</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003640853763386948</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1884,27 +1500,18 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6633212376.880657</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003805418449315569</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1918,27 +1525,18 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>4832715872.799869</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002078761924263675</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1952,27 +1550,18 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4548547839.739144</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001242050004349327</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1986,27 +1575,18 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>6855647313.962611</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004927765150242942</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,27 +1600,18 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9974566692.374119</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002164866358896269</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2054,27 +1625,18 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6968498053.888826</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003051315891233531</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2088,27 +1650,18 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5719636178.630104</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003787745600047369</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2122,28 +1675,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5858113975.61584</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002591786152236712</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,27 +1700,18 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4595576963.482819</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.00410692536379312</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2190,27 +1725,18 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6595816096.428942</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001613544604189283</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2224,27 +1750,18 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6764948026.115597</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003332462336766293</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2258,27 +1775,18 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4429296212.373923</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005222410174476111</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,28 +1800,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5990384564.955529</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003986020150507563</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,27 +1825,18 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5378249962.984273</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.001877345436338443</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2360,27 +1850,18 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8353909755.534452</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004526750139483924</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2394,27 +1875,18 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6099799870.912849</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002109478006747211</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2428,27 +1900,18 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6547703612.660674</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.002826723817512294</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,27 +1925,18 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3825515890.532163</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004057790620147836</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2496,27 +1950,18 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4863114286.053009</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004065657094774879</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2530,27 +1975,18 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5751788417.659567</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003663241381681902</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2564,27 +2000,18 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8606968563.866098</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.003656666143804668</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2598,27 +2025,18 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4762998063.484754</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005210950720339985</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2632,27 +2050,18 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6310194120.346536</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.00433718275948717</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2666,27 +2075,18 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5652838637.679229</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.004047621407083936</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2700,27 +2100,18 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5991446142.275275</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005790812791757359</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,27 +2125,18 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6359932295.220862</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002545555082557183</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2768,28 +2150,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5959969491.44432</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001243567873652497</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,27 +2175,18 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5429513295.635823</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003872521769322756</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2836,27 +2200,18 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>5196545598.831076</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002539123972868356</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2870,27 +2225,18 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6633938407.003086</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001610168270253425</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,27 +2250,18 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7391552391.515401</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.00118982845476312</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2938,27 +2275,18 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4517875513.832582</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003770802946650883</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2972,27 +2300,18 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5609525511.30409</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004459712738010923</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3006,27 +2325,18 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5184591243.207454</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.00273783019984845</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3040,28 +2350,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>8138993273.730283</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004658272220449762</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,27 +2375,18 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5061137444.875971</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004320664453849114</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3108,27 +2400,18 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7479441617.693658</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002152708392672517</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3142,28 +2425,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7758878936.549946</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002166095554141102</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,27 +2450,18 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6360289005.568536</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003864752426198608</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3210,27 +2475,18 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5329691281.918985</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.003720021546274416</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3244,27 +2500,18 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9280776457.920042</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002667164248987341</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3278,27 +2525,18 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5624191360.250932</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005188597202181435</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3312,27 +2550,18 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5551797817.940557</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.00262134225597995</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,28 +2575,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6933532887.544742</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.00222504400645149</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,27 +2600,18 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4068042810.652621</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001096978724044282</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3414,27 +2625,18 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7202836531.911628</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004451436239979112</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3448,27 +2650,18 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5591439299.823979</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004502121352949625</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3482,27 +2675,18 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6120259207.404232</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002502467237087853</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3516,28 +2700,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6405202650.086981</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003361733039271356</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,27 +2725,18 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3456248904.436866</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003258808993103761</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3584,27 +2750,18 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>4984378440.406897</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001209063573434043</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,28 +2775,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7316532212.741846</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001085262377727934</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,27 +2800,18 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7502302720.571568</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002121859328364921</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3686,28 +2825,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7717402848.033653</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002206182091070145</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +2850,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7346661891.421994</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005367599678032003</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +2875,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6233566056.633799</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.005094213129975447</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,27 +2900,18 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3602206738.899706</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005518712644761832</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3822,27 +2925,18 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5108885793.009692</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002385941227173627</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3856,27 +2950,18 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5167260276.108716</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001446235157851606</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output/fit_clients/fit_round_1.xlsx
+++ b/output/fit_clients/fit_round_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -475,18 +490,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9709802679.038013</v>
+        <v>2040846941.552597</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003987698932996386</v>
-      </c>
-      <c r="G2" t="b">
+        <v>0.1023715736553692</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02815023636902985</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -500,19 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6594666645.85048</v>
+        <v>1744887159.46024</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004820420979912959</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
+        <v>0.133052003765472</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03070362284862548</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6067651415.843006</v>
+        <v>3807422058.971627</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003491216764059708</v>
-      </c>
-      <c r="G4" t="b">
+        <v>0.1589481753906034</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0369329216639994</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -550,18 +592,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3904832723.367919</v>
+        <v>4043301743.39263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00475609510363605</v>
-      </c>
-      <c r="G5" t="b">
+        <v>0.07324697808017115</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04943263654296036</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -575,18 +626,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5965930207.677927</v>
+        <v>2263258310.021229</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002632131740081796</v>
-      </c>
-      <c r="G6" t="b">
+        <v>0.11476501408093</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04820338962650413</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,19 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6303829227.620863</v>
+        <v>2630759396.978786</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009145917121470991</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
+        <v>0.0886607430945778</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03017187091036415</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -625,19 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7254428086.430936</v>
+        <v>2442984234.080168</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002577847442842147</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
+        <v>0.1617333216433663</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02591428577804712</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -650,18 +728,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4764751982.842539</v>
+        <v>2188771086.031593</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004229269442534582</v>
-      </c>
-      <c r="G9" t="b">
+        <v>0.1597283550615891</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02944230663227188</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -675,18 +762,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3967497937.439472</v>
+        <v>3723024445.34712</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004204882979601928</v>
-      </c>
-      <c r="G10" t="b">
+        <v>0.1953375228530907</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04587108968202078</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -700,18 +796,27 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>566</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3834099318.024149</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1909554572439142</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03339293072875994</v>
+      </c>
+      <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
-        <v>582</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4995411920.73009</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0009189208824752683</v>
-      </c>
-      <c r="G11" t="b">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -725,19 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7995887223.20616</v>
+        <v>2814879883.809772</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001915620295164457</v>
-      </c>
-      <c r="G12" t="b">
+        <v>0.1900386997448777</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03914587700475192</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -750,18 +864,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4208431157.228541</v>
+        <v>5070336378.512028</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004464333262561847</v>
-      </c>
-      <c r="G13" t="b">
+        <v>0.09451790864042975</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0197577081677489</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,18 +898,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8866275023.16427</v>
+        <v>3465640583.429921</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003262360995248349</v>
-      </c>
-      <c r="G14" t="b">
+        <v>0.1205312289221774</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03835108877071629</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -800,19 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6059433134.304766</v>
+        <v>1126691876.398708</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004683363788778422</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
+        <v>0.09293569166657495</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04356682810808128</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -825,18 +966,27 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>505</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2837458564.644162</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1044933187631</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03208453397552358</v>
+      </c>
+      <c r="H16" t="b">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
-        <v>569</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5215795719.358379</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.005281816998808634</v>
-      </c>
-      <c r="G16" t="b">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,18 +1000,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5382601024.735572</v>
+        <v>4677780217.247848</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002967802422802016</v>
-      </c>
-      <c r="G17" t="b">
+        <v>0.115592613274873</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03527363654301911</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -875,19 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6095287171.359513</v>
+        <v>3402444627.274705</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00108549799699227</v>
-      </c>
-      <c r="G18" t="b">
+        <v>0.149316183588341</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0327303153924733</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -903,15 +1071,24 @@
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3006760036.823323</v>
+        <v>880455933.8997965</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001485169492958347</v>
-      </c>
-      <c r="G19" t="b">
+        <v>0.1577834944257878</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02047212860701117</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -925,18 +1102,27 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5776539275.285921</v>
+        <v>2236830003.981121</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001226588967988569</v>
-      </c>
-      <c r="G20" t="b">
+        <v>0.1293782655476951</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02187892407233699</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -950,18 +1136,27 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5199580614.263424</v>
+        <v>2365196965.365888</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004455741114545513</v>
-      </c>
-      <c r="G21" t="b">
+        <v>0.0714263293512675</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04442849412482169</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -978,15 +1173,24 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4759121986.526553</v>
+        <v>4023246680.909032</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005225376640867846</v>
-      </c>
-      <c r="G22" t="b">
+        <v>0.1177002966619829</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05319303411097882</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1000,18 +1204,27 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5927213311.099964</v>
+        <v>1414023210.055872</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001759823066530041</v>
-      </c>
-      <c r="G23" t="b">
+        <v>0.1596950695773313</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05015928271281404</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1025,18 +1238,27 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5563905523.017335</v>
+        <v>3508184375.459134</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004634992539563469</v>
-      </c>
-      <c r="G24" t="b">
+        <v>0.1110203317408018</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02824044548398624</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1053,15 +1275,24 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6793957745.645155</v>
+        <v>1277617882.260013</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003001276418639205</v>
-      </c>
-      <c r="G25" t="b">
+        <v>0.08150935457095977</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02172963343976312</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1075,18 +1306,27 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4261931626.325429</v>
+        <v>1117637469.655882</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001380424142063894</v>
-      </c>
-      <c r="G26" t="b">
+        <v>0.07923632566443288</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03180042655548051</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1100,18 +1340,27 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5580897177.433025</v>
+        <v>4186503474.839326</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002663080614089532</v>
-      </c>
-      <c r="G27" t="b">
+        <v>0.1286779971293</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02451193050084703</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1125,18 +1374,27 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7065529193.821658</v>
+        <v>2881082375.294703</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005553420597256864</v>
-      </c>
-      <c r="G28" t="b">
+        <v>0.1492033088978796</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0493918850290247</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1153,15 +1411,24 @@
         <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7897775061.30473</v>
+        <v>4232413480.869072</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001226800161109266</v>
-      </c>
-      <c r="G29" t="b">
+        <v>0.1296118545442201</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04259321236872995</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1175,19 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8646767425.823746</v>
+        <v>1677973629.709659</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00259799996857975</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
+        <v>0.09599951375358391</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02492892316048263</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1200,18 +1476,27 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5447905919.525312</v>
+        <v>989797653.9060249</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002730906444488332</v>
-      </c>
-      <c r="G31" t="b">
+        <v>0.0681287180637989</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0458219058618195</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1225,18 +1510,27 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3367235609.707932</v>
+        <v>1172606157.613946</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001114065003274678</v>
-      </c>
-      <c r="G32" t="b">
+        <v>0.09632262443756927</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02700125205939488</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1250,18 +1544,27 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5380919832.337186</v>
+        <v>2943091799.033812</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003288488339186806</v>
-      </c>
-      <c r="G33" t="b">
+        <v>0.1723333301282249</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05440386468375646</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1275,18 +1578,27 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5111563332.941791</v>
+        <v>1223813183.104922</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005533329330146097</v>
-      </c>
-      <c r="G34" t="b">
+        <v>0.1178241278737745</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02674912014232288</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1300,19 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6980255006.359584</v>
+        <v>1079862669.273019</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001992965758875755</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
+        <v>0.1079493050516881</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03089298493433918</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1328,15 +1649,24 @@
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5097234621.203179</v>
+        <v>2763327130.446266</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003391830801848026</v>
-      </c>
-      <c r="G36" t="b">
+        <v>0.1792749331145077</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02136510611516493</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1350,18 +1680,27 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4186958312.220137</v>
+        <v>1805179965.007571</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00496198635442788</v>
-      </c>
-      <c r="G37" t="b">
+        <v>0.107450775857582</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03503525503548659</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1375,18 +1714,27 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3681487327.211971</v>
+        <v>1841273564.217818</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004953904490289566</v>
-      </c>
-      <c r="G38" t="b">
+        <v>0.1057380922070776</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03311972886837379</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1400,18 +1748,27 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4390813440.80676</v>
+        <v>1958368450.19101</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00306080626633512</v>
-      </c>
-      <c r="G39" t="b">
+        <v>0.1603207913465035</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02565197147602121</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1428,15 +1785,24 @@
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>4534606019.336778</v>
+        <v>1362496587.157037</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004620027397690114</v>
-      </c>
-      <c r="G40" t="b">
+        <v>0.1623291209965605</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04542377571084441</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1453,15 +1819,24 @@
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>4884152962.294201</v>
+        <v>2755795541.595605</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001204815628878524</v>
-      </c>
-      <c r="G41" t="b">
+        <v>0.1152635239233475</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0330658711841312</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1475,18 +1850,27 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4862265829.284718</v>
+        <v>3590181270.132156</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003640853763386948</v>
-      </c>
-      <c r="G42" t="b">
+        <v>0.1004895790810864</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0450429719973514</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1503,15 +1887,24 @@
         <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6633212376.880657</v>
+        <v>2983973595.152806</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003805418449315569</v>
-      </c>
-      <c r="G43" t="b">
+        <v>0.1297877249993784</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01620324747855518</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1525,18 +1918,27 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>4832715872.799869</v>
+        <v>1471185625.134257</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002078761924263675</v>
-      </c>
-      <c r="G44" t="b">
+        <v>0.09706121971784538</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02748601201626061</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1550,18 +1952,27 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4548547839.739144</v>
+        <v>2101990417.106332</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001242050004349327</v>
-      </c>
-      <c r="G45" t="b">
+        <v>0.1819417375963095</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0484347610526398</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1575,18 +1986,27 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>6855647313.962611</v>
+        <v>4550934148.135591</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004927765150242942</v>
-      </c>
-      <c r="G46" t="b">
+        <v>0.1173338221310487</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04467247510141633</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1603,15 +2023,24 @@
         <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9974566692.374119</v>
+        <v>4030731394.104846</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002164866358896269</v>
-      </c>
-      <c r="G47" t="b">
+        <v>0.1287254442678012</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05451316285354958</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1625,18 +2054,27 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6968498053.888826</v>
+        <v>4590984233.810679</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003051315891233531</v>
-      </c>
-      <c r="G48" t="b">
+        <v>0.09815709707885592</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02860278891952798</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1653,15 +2091,24 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5719636178.630104</v>
+        <v>1703818523.392958</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003787745600047369</v>
-      </c>
-      <c r="G49" t="b">
+        <v>0.1366785477572325</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03378863463451722</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1678,16 +2125,25 @@
         <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5858113975.61584</v>
+        <v>3839515058.070922</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002591786152236712</v>
-      </c>
-      <c r="G50" t="b">
+        <v>0.1418571039509095</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0491604729333455</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1700,18 +2156,27 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4595576963.482819</v>
+        <v>1514520130.000434</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00410692536379312</v>
-      </c>
-      <c r="G51" t="b">
+        <v>0.1904682569240466</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04905384493516624</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1725,18 +2190,27 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6595816096.428942</v>
+        <v>4953718091.777428</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001613544604189283</v>
-      </c>
-      <c r="G52" t="b">
+        <v>0.08457300806957703</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04862390169888534</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1750,18 +2224,27 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6764948026.115597</v>
+        <v>3462052081.774654</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003332462336766293</v>
-      </c>
-      <c r="G53" t="b">
+        <v>0.1488263169013008</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02248107106213036</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1778,15 +2261,24 @@
         <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4429296212.373923</v>
+        <v>3194003705.870241</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005222410174476111</v>
-      </c>
-      <c r="G54" t="b">
+        <v>0.1328636302684484</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03781344803213336</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1800,19 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>5990384564.955529</v>
+        <v>4591273585.963255</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003986020150507563</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
+        <v>0.2115954710339983</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02772174988435304</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1825,18 +2326,27 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5378249962.984273</v>
+        <v>1782631845.383227</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001877345436338443</v>
-      </c>
-      <c r="G56" t="b">
+        <v>0.1475556503450408</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05354402451612009</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,18 +2360,27 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8353909755.534452</v>
+        <v>2956734301.097857</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004526750139483924</v>
-      </c>
-      <c r="G57" t="b">
+        <v>0.1788266140357634</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01834595551232859</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1875,18 +2394,27 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6099799870.912849</v>
+        <v>1829936349.061273</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002109478006747211</v>
-      </c>
-      <c r="G58" t="b">
+        <v>0.1840544888908708</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02777478447423978</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1903,15 +2431,24 @@
         <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6547703612.660674</v>
+        <v>3485456179.645309</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002826723817512294</v>
-      </c>
-      <c r="G59" t="b">
+        <v>0.1221645402715714</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0463060831777307</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1925,18 +2462,27 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3825515890.532163</v>
+        <v>2336947832.836078</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004057790620147836</v>
-      </c>
-      <c r="G60" t="b">
+        <v>0.1414231563920058</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03306719945588961</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1950,18 +2496,27 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>4863114286.053009</v>
+        <v>2786310659.227645</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004065657094774879</v>
-      </c>
-      <c r="G61" t="b">
+        <v>0.1127207021601745</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02710284081178793</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1975,18 +2530,27 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5751788417.659567</v>
+        <v>1620005301.988404</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003663241381681902</v>
-      </c>
-      <c r="G62" t="b">
+        <v>0.1601571137882058</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0371979478292951</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2000,18 +2564,27 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8606968563.866098</v>
+        <v>5387428394.628223</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003656666143804668</v>
-      </c>
-      <c r="G63" t="b">
+        <v>0.1023264831163656</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03221322447647065</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2028,15 +2601,24 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4762998063.484754</v>
+        <v>3500581889.174551</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005210950720339985</v>
-      </c>
-      <c r="G64" t="b">
+        <v>0.1177689166016305</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03364862144711398</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2050,18 +2632,27 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6310194120.346536</v>
+        <v>4294437787.491339</v>
       </c>
       <c r="F65" t="n">
-        <v>0.00433718275948717</v>
-      </c>
-      <c r="G65" t="b">
+        <v>0.1248505423642441</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02876786427652906</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2075,18 +2666,27 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5652838637.679229</v>
+        <v>4506875839.29829</v>
       </c>
       <c r="F66" t="n">
-        <v>0.004047621407083936</v>
-      </c>
-      <c r="G66" t="b">
+        <v>0.1231467475235955</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0468825376667589</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2100,18 +2700,27 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5991446142.275275</v>
+        <v>3215064944.169172</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005790812791757359</v>
-      </c>
-      <c r="G67" t="b">
+        <v>0.06970886871893139</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03718268172692271</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2125,18 +2734,27 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6359932295.220862</v>
+        <v>4083556989.217045</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002545555082557183</v>
-      </c>
-      <c r="G68" t="b">
+        <v>0.1566682237193058</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03477586152091514</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,19 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5959969491.44432</v>
+        <v>1970362722.373587</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001243567873652497</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
+        <v>0.1627593140283375</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05845364251269645</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2175,18 +2802,27 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5429513295.635823</v>
+        <v>3367776953.434273</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003872521769322756</v>
-      </c>
-      <c r="G70" t="b">
+        <v>0.07791743014020062</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04859159102973382</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2200,18 +2836,27 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5196545598.831076</v>
+        <v>3589837499.983161</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002539123972868356</v>
-      </c>
-      <c r="G71" t="b">
+        <v>0.169656046499852</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02402886154682235</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2225,18 +2870,27 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6633938407.003086</v>
+        <v>1660718726.103573</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001610168270253425</v>
-      </c>
-      <c r="G72" t="b">
+        <v>0.0991359282075768</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0342248908688829</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2253,15 +2907,24 @@
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7391552391.515401</v>
+        <v>2944770104.995107</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00118982845476312</v>
-      </c>
-      <c r="G73" t="b">
+        <v>0.09234846445578837</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03918186851120042</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2275,18 +2938,27 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4517875513.832582</v>
+        <v>3749512629.533884</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003770802946650883</v>
-      </c>
-      <c r="G74" t="b">
+        <v>0.1516105554205111</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0352497837158874</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2303,15 +2975,24 @@
         <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5609525511.30409</v>
+        <v>1607545619.735383</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004459712738010923</v>
-      </c>
-      <c r="G75" t="b">
+        <v>0.1281627227476783</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03660061740665032</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2325,18 +3006,27 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5184591243.207454</v>
+        <v>4392875214.911829</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00273783019984845</v>
-      </c>
-      <c r="G76" t="b">
+        <v>0.1009066729964149</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02897961055341996</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2350,19 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>8138993273.730283</v>
+        <v>1589124613.059164</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004658272220449762</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
+        <v>0.1741668548432299</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02898808952874541</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2378,15 +3077,24 @@
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5061137444.875971</v>
+        <v>3505995226.280086</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004320664453849114</v>
-      </c>
-      <c r="G78" t="b">
+        <v>0.1187975626551686</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03669276347277221</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2400,18 +3108,27 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7479441617.693658</v>
+        <v>1308944528.903411</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002152708392672517</v>
-      </c>
-      <c r="G79" t="b">
+        <v>0.1269493114490141</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0250242389642238</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2428,16 +3145,25 @@
         <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7758878936.549946</v>
+        <v>4030817183.004694</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002166095554141102</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
+        <v>0.06719090213431202</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03686012784780032</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2450,18 +3176,27 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6360289005.568536</v>
+        <v>5014184628.527127</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003864752426198608</v>
-      </c>
-      <c r="G81" t="b">
+        <v>0.1236825180876679</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02287182968576373</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2475,18 +3210,27 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5329691281.918985</v>
+        <v>4696948851.853073</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003720021546274416</v>
-      </c>
-      <c r="G82" t="b">
+        <v>0.1424156209813807</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02953077475402096</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,18 +3244,27 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9280776457.920042</v>
+        <v>2126621428.532535</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002667164248987341</v>
-      </c>
-      <c r="G83" t="b">
+        <v>0.0955586581094621</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.02759161875254475</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2525,18 +3278,27 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5624191360.250932</v>
+        <v>2028550820.622589</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005188597202181435</v>
-      </c>
-      <c r="G84" t="b">
+        <v>0.1086826568257719</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04238541633637685</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2550,18 +3312,27 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5551797817.940557</v>
+        <v>2462460602.943055</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00262134225597995</v>
-      </c>
-      <c r="G85" t="b">
+        <v>0.1446178044991385</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0507097239317038</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2575,19 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6933532887.544742</v>
+        <v>1807120331.935307</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00222504400645149</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
+        <v>0.1387006947009768</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02374029675646509</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2600,18 +3380,27 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4068042810.652621</v>
+        <v>984574666.5634488</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001096978724044282</v>
-      </c>
-      <c r="G87" t="b">
+        <v>0.1418500259600589</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03460623602956623</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2625,18 +3414,27 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7202836531.911628</v>
+        <v>2702861894.787562</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004451436239979112</v>
-      </c>
-      <c r="G88" t="b">
+        <v>0.1158424586952204</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02978144339993858</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2650,18 +3448,27 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5591439299.823979</v>
+        <v>3509743190.118279</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004502121352949625</v>
-      </c>
-      <c r="G89" t="b">
+        <v>0.1095309578121671</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0280621439898671</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2675,18 +3482,27 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6120259207.404232</v>
+        <v>1620027367.763186</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002502467237087853</v>
-      </c>
-      <c r="G90" t="b">
+        <v>0.1016097511271438</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05280560750805845</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2703,16 +3519,25 @@
         <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6405202650.086981</v>
+        <v>1785536926.789929</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003361733039271356</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
+        <v>0.1581358656723046</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04250278480406844</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2725,18 +3550,27 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3456248904.436866</v>
+        <v>2725996199.6422</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003258808993103761</v>
-      </c>
-      <c r="G92" t="b">
+        <v>0.07998446134813775</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03576213670114967</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2750,18 +3584,27 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4984378440.406897</v>
+        <v>4000677779.176749</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001209063573434043</v>
-      </c>
-      <c r="G93" t="b">
+        <v>0.1062407425438738</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.05287953027772295</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2775,19 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7316532212.741846</v>
+        <v>2020894152.395045</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001085262377727934</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
+        <v>0.1182437989039743</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04063288949515934</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2800,18 +3652,27 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7502302720.571568</v>
+        <v>2985331998.192616</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002121859328364921</v>
-      </c>
-      <c r="G95" t="b">
+        <v>0.1244063830797757</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04908898687852382</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2825,19 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7717402848.033653</v>
+        <v>1867914254.356929</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002206182091070145</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
+        <v>0.1386096516996657</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0320327535639551</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2850,19 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7346661891.421994</v>
+        <v>3295434542.673182</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005367599678032003</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
+        <v>0.1314048199716676</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02770962121322011</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2875,19 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6233566056.633799</v>
+        <v>3242413808.481073</v>
       </c>
       <c r="F98" t="n">
-        <v>0.005094213129975447</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
+        <v>0.08561463812943582</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02902423288877411</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2903,15 +3791,24 @@
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3602206738.899706</v>
+        <v>3207193975.828685</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005518712644761832</v>
-      </c>
-      <c r="G99" t="b">
+        <v>0.09063395776999747</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03167731671202838</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2925,18 +3822,27 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5108885793.009692</v>
+        <v>3119256599.58715</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002385941227173627</v>
-      </c>
-      <c r="G100" t="b">
+        <v>0.1577170081141881</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0236518605299095</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2950,18 +3856,27 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5167260276.108716</v>
+        <v>2329310540.644855</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001446235157851606</v>
-      </c>
-      <c r="G101" t="b">
+        <v>0.1858608658465665</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04241853146315256</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output/fit_clients/fit_round_1.xlsx
+++ b/output/fit_clients/fit_round_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,27 +480,21 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2040846941.552597</v>
+        <v>2246989597.654962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1023715736553692</v>
+        <v>0.1038040203983673</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02815023636902985</v>
+        <v>0.03657536442337588</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,27 +508,21 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1744887159.46024</v>
+        <v>2591136921.594314</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133052003765472</v>
+        <v>0.116649666514405</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03070362284862548</v>
+        <v>0.05045152516671954</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -558,27 +536,21 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3807422058.971627</v>
+        <v>4043578498.966197</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1589481753906034</v>
+        <v>0.1633913652403295</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0369329216639994</v>
+        <v>0.03829052140896429</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -598,21 +570,15 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4043301743.39263</v>
+        <v>3576823942.264853</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07324697808017115</v>
+        <v>0.07864298035389614</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04943263654296036</v>
+        <v>0.03823017741658261</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -632,21 +598,15 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2263258310.021229</v>
+        <v>1764086029.239351</v>
       </c>
       <c r="F6" t="n">
-        <v>0.11476501408093</v>
+        <v>0.1021628619106409</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04820338962650413</v>
+        <v>0.04883276419183089</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -660,27 +620,21 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2630759396.978786</v>
+        <v>2278851762.28132</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0886607430945778</v>
+        <v>0.0854698940698314</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03017187091036415</v>
+        <v>0.03322473056387402</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -700,21 +654,15 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2442984234.080168</v>
+        <v>2468600277.51988</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1617333216433663</v>
+        <v>0.1828834321003765</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02591428577804712</v>
+        <v>0.02426907062886139</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -728,27 +676,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2188771086.031593</v>
+        <v>1648258986.766399</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1597283550615891</v>
+        <v>0.1452489027274892</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02944230663227188</v>
+        <v>0.02621121278105988</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -762,27 +704,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3723024445.34712</v>
+        <v>4702129013.246441</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1953375228530907</v>
+        <v>0.1782770127797673</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04587108968202078</v>
+        <v>0.03622701152279909</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -802,21 +738,15 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3834099318.024149</v>
+        <v>3928363917.884771</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1909554572439142</v>
+        <v>0.1506384130430603</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03339293072875994</v>
+        <v>0.04352702651238712</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -830,27 +760,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2814879883.809772</v>
+        <v>2423090547.768954</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1900386997448777</v>
+        <v>0.1859395020732351</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03914587700475192</v>
+        <v>0.04645995074369107</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -864,27 +788,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5070336378.512028</v>
+        <v>4092286939.252768</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09451790864042975</v>
+        <v>0.08473568501449873</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0197577081677489</v>
+        <v>0.02195640262847997</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -898,27 +816,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3465640583.429921</v>
+        <v>3210501651.93996</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1205312289221774</v>
+        <v>0.1874429081405972</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03835108877071629</v>
+        <v>0.03003285629029477</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -932,27 +844,21 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1126691876.398708</v>
+        <v>1456752485.512632</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09293569166657495</v>
+        <v>0.06864530405042626</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04356682810808128</v>
+        <v>0.04008457208538148</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,27 +872,21 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2837458564.644162</v>
+        <v>2642370699.814686</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1044933187631</v>
+        <v>0.1052783083523973</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03208453397552358</v>
+        <v>0.03674218958821002</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1000,27 +900,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4677780217.247848</v>
+        <v>5298537078.616805</v>
       </c>
       <c r="F17" t="n">
-        <v>0.115592613274873</v>
+        <v>0.156730227550828</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03527363654301911</v>
+        <v>0.03239722480589113</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1040,21 +934,15 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3402444627.274705</v>
+        <v>3840321445.98738</v>
       </c>
       <c r="F18" t="n">
-        <v>0.149316183588341</v>
+        <v>0.1155830603838453</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0327303153924733</v>
+        <v>0.02695957785110647</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1068,27 +956,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>880455933.8997965</v>
+        <v>1291601738.267334</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1577834944257878</v>
+        <v>0.1487832242914082</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02047212860701117</v>
+        <v>0.023490336900733</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1102,27 +984,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2236830003.981121</v>
+        <v>1949784783.879284</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1293782655476951</v>
+        <v>0.1539347860919477</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02187892407233699</v>
+        <v>0.02821931835458475</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,27 +1012,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2365196965.365888</v>
+        <v>2092174533.863183</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0714263293512675</v>
+        <v>0.06738119434340102</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04442849412482169</v>
+        <v>0.03503850604328954</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1170,27 +1040,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4023246680.909032</v>
+        <v>4011798824.395624</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1177002966619829</v>
+        <v>0.1376217902123713</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05319303411097882</v>
+        <v>0.04203267970280557</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1414023210.055872</v>
+        <v>1404365908.553801</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1596950695773313</v>
+        <v>0.1781620587207019</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05015928271281404</v>
+        <v>0.05218207748036856</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,27 +1096,21 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3508184375.459134</v>
+        <v>3802049047.87333</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1110203317408018</v>
+        <v>0.1232721947322043</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02824044548398624</v>
+        <v>0.02636235898466831</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1272,27 +1124,21 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1277617882.260013</v>
+        <v>1317790448.579103</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08150935457095977</v>
+        <v>0.1018992255134624</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02172963343976312</v>
+        <v>0.02535602525723132</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1117637469.655882</v>
+        <v>1290386695.512856</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07923632566443288</v>
+        <v>0.1153128828158419</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03180042655548051</v>
+        <v>0.03870030373075934</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4186503474.839326</v>
+        <v>3285495909.700929</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1286779971293</v>
+        <v>0.1367018245638939</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02451193050084703</v>
+        <v>0.0253652183981707</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,27 +1208,21 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2881082375.294703</v>
+        <v>3648192372.102799</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1492033088978796</v>
+        <v>0.1249367578793373</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0493918850290247</v>
+        <v>0.04834992386176945</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,27 +1236,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4232413480.869072</v>
+        <v>4660372661.540954</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1296118545442201</v>
+        <v>0.117811952598546</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04259321236872995</v>
+        <v>0.04476539321506028</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1442,27 +1264,21 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1677973629.709659</v>
+        <v>2161400670.107306</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09599951375358391</v>
+        <v>0.1159707640425244</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02492892316048263</v>
+        <v>0.03728303281234134</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1476,27 +1292,21 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>989797653.9060249</v>
+        <v>923055699.0958892</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0681287180637989</v>
+        <v>0.09984510012319998</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0458219058618195</v>
+        <v>0.05051386930016791</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1510,27 +1320,21 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1172606157.613946</v>
+        <v>1687162663.784075</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09632262443756927</v>
+        <v>0.09914235210540528</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02700125205939488</v>
+        <v>0.02769256146309917</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1544,27 +1348,21 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2943091799.033812</v>
+        <v>2661497826.684897</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1723333301282249</v>
+        <v>0.1585079733384304</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05440386468375646</v>
+        <v>0.04377611308277433</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1584,21 +1382,15 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1223813183.104922</v>
+        <v>1117828901.543662</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1178241278737745</v>
+        <v>0.08993322098259965</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02674912014232288</v>
+        <v>0.01831316006003995</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1612,27 +1404,21 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1079862669.273019</v>
+        <v>855295834.1892256</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1079493050516881</v>
+        <v>0.1105030804850957</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03089298493433918</v>
+        <v>0.04501454380402215</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1646,27 +1432,21 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2763327130.446266</v>
+        <v>2357212645.395264</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1792749331145077</v>
+        <v>0.1745546839751744</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02136510611516493</v>
+        <v>0.02130545715891887</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1680,27 +1460,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1805179965.007571</v>
+        <v>2553514143.695769</v>
       </c>
       <c r="F37" t="n">
-        <v>0.107450775857582</v>
+        <v>0.08938975634468195</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03503525503548659</v>
+        <v>0.02650846527071914</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1714,27 +1488,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1841273564.217818</v>
+        <v>1746544758.241545</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1057380922070776</v>
+        <v>0.09748545513776183</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03311972886837379</v>
+        <v>0.02881340187167784</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1754,21 +1522,15 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1958368450.19101</v>
+        <v>2079103049.009135</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1603207913465035</v>
+        <v>0.1355839381709734</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02565197147602121</v>
+        <v>0.03132073963186684</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1788,21 +1550,15 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1362496587.157037</v>
+        <v>1183261095.615571</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1623291209965605</v>
+        <v>0.1284130293485843</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04542377571084441</v>
+        <v>0.04829723588766813</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1822,21 +1578,15 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2755795541.595605</v>
+        <v>2151127962.382968</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1152635239233475</v>
+        <v>0.1582109106498957</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0330658711841312</v>
+        <v>0.04118185482471893</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,27 +1600,21 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3590181270.132156</v>
+        <v>2785554171.474259</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1004895790810864</v>
+        <v>0.08906717030274973</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0450429719973514</v>
+        <v>0.03090817756278424</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1884,27 +1628,21 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2983973595.152806</v>
+        <v>2347510474.622843</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1297877249993784</v>
+        <v>0.1517710782455455</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01620324747855518</v>
+        <v>0.01851258127470291</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1471185625.134257</v>
+        <v>2195950871.328914</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09706121971784538</v>
+        <v>0.09246513600095199</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02748601201626061</v>
+        <v>0.02656833711468374</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,21 +1690,15 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2101990417.106332</v>
+        <v>1634256619.81618</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1819417375963095</v>
+        <v>0.1205315569509225</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0484347610526398</v>
+        <v>0.04650814315761197</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4550934148.135591</v>
+        <v>4253414605.918638</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1173338221310487</v>
+        <v>0.1414499260883781</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04467247510141633</v>
+        <v>0.04291432197986864</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,27 +1740,21 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4030731394.104846</v>
+        <v>3435663393.875668</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1287254442678012</v>
+        <v>0.1529329206436863</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05451316285354958</v>
+        <v>0.04565234108001606</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2054,27 +1768,21 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4590984233.810679</v>
+        <v>3739678202.847475</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09815709707885592</v>
+        <v>0.09542605714002463</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02860278891952798</v>
+        <v>0.02819503829007971</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1703818523.392958</v>
+        <v>1891023876.819476</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1366785477572325</v>
+        <v>0.1902438076313571</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03378863463451722</v>
+        <v>0.027653589126735</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,21 +1830,15 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3839515058.070922</v>
+        <v>3738465140.442524</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1418571039509095</v>
+        <v>0.1434784943906563</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0491604729333455</v>
+        <v>0.03891916770788196</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2156,27 +1852,21 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1514520130.000434</v>
+        <v>1119931099.458048</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1904682569240466</v>
+        <v>0.1948033736511278</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04905384493516624</v>
+        <v>0.03480583882722751</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2190,27 +1880,21 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4953718091.777428</v>
+        <v>5198463062.403577</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08457300806957703</v>
+        <v>0.1044269700687466</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04862390169888534</v>
+        <v>0.05926426146582182</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3462052081.774654</v>
+        <v>3051259894.092636</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1488263169013008</v>
+        <v>0.2009030881860008</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02248107106213036</v>
+        <v>0.03278005724835317</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3194003705.870241</v>
+        <v>3179949606.371871</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1328636302684484</v>
+        <v>0.1617911461467586</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03781344803213336</v>
+        <v>0.03205684992239052</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,27 +1964,21 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4591273585.963255</v>
+        <v>3645303343.886952</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2115954710339983</v>
+        <v>0.2021373814813179</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02772174988435304</v>
+        <v>0.02191030111343921</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2326,27 +1992,21 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1782631845.383227</v>
+        <v>1708818817.555591</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1475556503450408</v>
+        <v>0.1063459230818755</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05354402451612009</v>
+        <v>0.04447416490529904</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2366,21 +2026,15 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2956734301.097857</v>
+        <v>3106467581.768242</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1788266140357634</v>
+        <v>0.1532655924829106</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01834595551232859</v>
+        <v>0.01877366413129757</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2394,27 +2048,21 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1829936349.061273</v>
+        <v>1496400999.492433</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1840544888908708</v>
+        <v>0.13776387308876</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02777478447423978</v>
+        <v>0.03523378083520878</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2428,27 +2076,21 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3485456179.645309</v>
+        <v>3804907877.833037</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1221645402715714</v>
+        <v>0.1015096641707694</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0463060831777307</v>
+        <v>0.05004236230395846</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,27 +2104,21 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2336947832.836078</v>
+        <v>2614624727.265762</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1414231563920058</v>
+        <v>0.1894851487837278</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03306719945588961</v>
+        <v>0.02882880556359972</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2502,21 +2138,15 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2786310659.227645</v>
+        <v>2650812551.800495</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1127207021601745</v>
+        <v>0.1417790465681303</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02710284081178793</v>
+        <v>0.02105417679670218</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1620005301.988404</v>
+        <v>1584163921.251275</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1601571137882058</v>
+        <v>0.1339153592671682</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0371979478292951</v>
+        <v>0.03231603981052662</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5387428394.628223</v>
+        <v>3621960781.127075</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1023264831163656</v>
+        <v>0.0706271206773298</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03221322447647065</v>
+        <v>0.02990990133331144</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,21 +2222,15 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3500581889.174551</v>
+        <v>4017602894.414487</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1177689166016305</v>
+        <v>0.153487860125957</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03364862144711398</v>
+        <v>0.02523858028702125</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2632,27 +2244,21 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4294437787.491339</v>
+        <v>3984921115.880543</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1248505423642441</v>
+        <v>0.1513774322106615</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02876786427652906</v>
+        <v>0.02088366202340387</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2666,27 +2272,21 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4506875839.29829</v>
+        <v>5158305245.231446</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1231467475235955</v>
+        <v>0.1051419595011523</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0468825376667589</v>
+        <v>0.05108377956038981</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2700,27 +2300,21 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3215064944.169172</v>
+        <v>2678126961.253442</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06970886871893139</v>
+        <v>0.0759523235754104</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03718268172692271</v>
+        <v>0.05072149821231499</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2740,21 +2334,15 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4083556989.217045</v>
+        <v>4931679167.123692</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1566682237193058</v>
+        <v>0.1139169334179771</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03477586152091514</v>
+        <v>0.0446441385037274</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1970362722.373587</v>
+        <v>1821979374.620343</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1627593140283375</v>
+        <v>0.1225692943752185</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05845364251269645</v>
+        <v>0.05741136142490472</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,27 +2384,21 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3367776953.434273</v>
+        <v>2613036757.171735</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07791743014020062</v>
+        <v>0.08447025702792545</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04859159102973382</v>
+        <v>0.03299184451837642</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3589837499.983161</v>
+        <v>3714299294.476583</v>
       </c>
       <c r="F71" t="n">
-        <v>0.169656046499852</v>
+        <v>0.1532527643335873</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02402886154682235</v>
+        <v>0.02385348893688734</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,27 +2440,21 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1660718726.103573</v>
+        <v>1538813360.702411</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0991359282075768</v>
+        <v>0.1048363646450766</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0342248908688829</v>
+        <v>0.03584482919320059</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,27 +2468,21 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2944770104.995107</v>
+        <v>2292983451.082337</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09234846445578837</v>
+        <v>0.0878406268852486</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03918186851120042</v>
+        <v>0.03457599319014206</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2944,21 +2502,15 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3749512629.533884</v>
+        <v>3703813948.663966</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1516105554205111</v>
+        <v>0.1720743020479021</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0352497837158874</v>
+        <v>0.03159860057606192</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2978,21 +2530,15 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1607545619.735383</v>
+        <v>2482050021.850769</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1281627227476783</v>
+        <v>0.1621303859827447</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03660061740665032</v>
+        <v>0.02736131905103169</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3006,27 +2552,21 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4392875214.911829</v>
+        <v>4061907683.340776</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1009066729964149</v>
+        <v>0.1187463087863593</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02897961055341996</v>
+        <v>0.02935069864904866</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1589124613.059164</v>
+        <v>2105185087.178092</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1741668548432299</v>
+        <v>0.1511151495721677</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02898808952874541</v>
+        <v>0.02276180778684963</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,27 +2608,21 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3505995226.280086</v>
+        <v>4532326022.517574</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1187975626551686</v>
+        <v>0.09726866543782339</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03669276347277221</v>
+        <v>0.0436962533978547</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1308944528.903411</v>
+        <v>1222882729.265362</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1269493114490141</v>
+        <v>0.1563778343836743</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0250242389642238</v>
+        <v>0.02962685344661822</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,27 +2664,21 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4030817183.004694</v>
+        <v>3852258239.576035</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06719090213431202</v>
+        <v>0.06886897354890591</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03686012784780032</v>
+        <v>0.02688004204338612</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5014184628.527127</v>
+        <v>3375813622.705574</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1236825180876679</v>
+        <v>0.1091265539380782</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02287182968576373</v>
+        <v>0.0327697928991946</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,27 +2720,21 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4696948851.853073</v>
+        <v>3949980636.971667</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1424156209813807</v>
+        <v>0.1713754911173084</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02953077475402096</v>
+        <v>0.0264577804583753</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3244,27 +2748,21 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2126621428.532535</v>
+        <v>1663527544.633881</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0955586581094621</v>
+        <v>0.1432414016189184</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02759161875254475</v>
+        <v>0.03504197350588188</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2028550820.622589</v>
+        <v>1683767833.005672</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1086826568257719</v>
+        <v>0.1212654606231351</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04238541633637685</v>
+        <v>0.04000970353771412</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,27 +2804,21 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2462460602.943055</v>
+        <v>2768209430.573771</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1446178044991385</v>
+        <v>0.1732376562718884</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0507097239317038</v>
+        <v>0.04938772534248066</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,27 +2832,21 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1807120331.935307</v>
+        <v>2675636867.978552</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1387006947009768</v>
+        <v>0.1559895641618746</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02374029675646509</v>
+        <v>0.02355067372080843</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3380,27 +2860,21 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>984574666.5634488</v>
+        <v>1152953754.819057</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1418500259600589</v>
+        <v>0.1512938082237321</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03460623602956623</v>
+        <v>0.03965857126395006</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2702861894.787562</v>
+        <v>2439982953.118954</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1158424586952204</v>
+        <v>0.1769914085808093</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02978144339993858</v>
+        <v>0.02424659372139938</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,27 +2916,21 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3509743190.118279</v>
+        <v>3112053558.681845</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1095309578121671</v>
+        <v>0.1544195053828049</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0280621439898671</v>
+        <v>0.03674128927995081</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,21 +2950,15 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1620027367.763186</v>
+        <v>1438274045.478777</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1016097511271438</v>
+        <v>0.0922563631119412</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05280560750805845</v>
+        <v>0.03988955728982718</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1785536926.789929</v>
+        <v>2067371439.964073</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1581358656723046</v>
+        <v>0.1324219031766518</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04250278480406844</v>
+        <v>0.05870336770587061</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2725996199.6422</v>
+        <v>2783018193.946646</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07998446134813775</v>
+        <v>0.07347677987642144</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03576213670114967</v>
+        <v>0.03530712654615505</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,27 +3028,21 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4000677779.176749</v>
+        <v>3299978926.369856</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1062407425438738</v>
+        <v>0.1308704440330862</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05287953027772295</v>
+        <v>0.0440159967621185</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,27 +3056,21 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2020894152.395045</v>
+        <v>1848425031.853373</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1182437989039743</v>
+        <v>0.1466323450680404</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04063288949515934</v>
+        <v>0.03295780405998629</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3652,27 +3084,21 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2985331998.192616</v>
+        <v>2186792805.435074</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1244063830797757</v>
+        <v>0.1239416008304599</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04908898687852382</v>
+        <v>0.04999145876811147</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1867914254.356929</v>
+        <v>2134487240.694306</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1386096516996657</v>
+        <v>0.1349642697057584</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0320327535639551</v>
+        <v>0.03805871514356976</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,27 +3140,21 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3295434542.673182</v>
+        <v>4126189775.709789</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1314048199716676</v>
+        <v>0.1364357559177055</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02770962121322011</v>
+        <v>0.02907982649864758</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3754,27 +3168,21 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3242413808.481073</v>
+        <v>3804883664.231514</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08561463812943582</v>
+        <v>0.089149543369772</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02902423288877411</v>
+        <v>0.03028575260156588</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3794,21 +3202,15 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3207193975.828685</v>
+        <v>2424397830.761501</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09063395776999747</v>
+        <v>0.1192386240871685</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03167731671202838</v>
+        <v>0.02335256743493505</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3828,21 +3230,15 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3119256599.58715</v>
+        <v>3309117923.47385</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1577170081141881</v>
+        <v>0.1479649367512727</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0236518605299095</v>
+        <v>0.01787462237392569</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3856,27 +3252,21 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2329310540.644855</v>
+        <v>2656399078.352269</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1858608658465665</v>
+        <v>0.2051764676428577</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04241853146315256</v>
+        <v>0.05834963733312341</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output/fit_clients/fit_round_1.xlsx
+++ b/output/fit_clients/fit_round_1.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2246989597.654962</v>
+        <v>2111441867.130275</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1038040203983673</v>
+        <v>0.07024957672997201</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03657536442337588</v>
+        <v>0.03523822187339281</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2591136921.594314</v>
+        <v>1908143587.76965</v>
       </c>
       <c r="F3" t="n">
-        <v>0.116649666514405</v>
+        <v>0.1358427513767374</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05045152516671954</v>
+        <v>0.04356699079766427</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4043578498.966197</v>
+        <v>3266213214.593129</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1633913652403295</v>
+        <v>0.1653560819257934</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03829052140896429</v>
+        <v>0.0312500327676812</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3576823942.264853</v>
+        <v>3045202519.861518</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07864298035389614</v>
+        <v>0.09486545895378379</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03823017741658261</v>
+        <v>0.05002047390935773</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1764086029.239351</v>
+        <v>2515599034.547793</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1021628619106409</v>
+        <v>0.1153972027943352</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04883276419183089</v>
+        <v>0.05677834927329919</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2278851762.28132</v>
+        <v>3103160413.036255</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0854698940698314</v>
+        <v>0.07878495165840521</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03322473056387402</v>
+        <v>0.04192241421356036</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2468600277.51988</v>
+        <v>3281587957.688446</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1828834321003765</v>
+        <v>0.1511220141072499</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02426907062886139</v>
+        <v>0.033239669505695</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1648258986.766399</v>
+        <v>2238642376.008054</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1452489027274892</v>
+        <v>0.1592811781916173</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02621121278105988</v>
+        <v>0.027955998358878</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4702129013.246441</v>
+        <v>4893444563.904825</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1782770127797673</v>
+        <v>0.1616533617126551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03622701152279909</v>
+        <v>0.04889135619079973</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3928363917.884771</v>
+        <v>2906877924.365947</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1506384130430603</v>
+        <v>0.1315663756395958</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04352702651238712</v>
+        <v>0.04766138391971203</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2423090547.768954</v>
+        <v>2740802209.493621</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1859395020732351</v>
+        <v>0.1678448886898377</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04645995074369107</v>
+        <v>0.03566274060478544</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4092286939.252768</v>
+        <v>4682067220.34626</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08473568501449873</v>
+        <v>0.09280523194141177</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02195640262847997</v>
+        <v>0.02651667129923891</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3210501651.93996</v>
+        <v>3189468824.302737</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1874429081405972</v>
+        <v>0.1737295170497578</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03003285629029477</v>
+        <v>0.03796050774840708</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1456752485.512632</v>
+        <v>1467234913.753832</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06864530405042626</v>
+        <v>0.1069540848461515</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04008457208538148</v>
+        <v>0.04425290308442635</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2642370699.814686</v>
+        <v>2651282513.970066</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1052783083523973</v>
+        <v>0.1004209828688612</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03674218958821002</v>
+        <v>0.04559133772054953</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5298537078.616805</v>
+        <v>3686131157.922581</v>
       </c>
       <c r="F17" t="n">
-        <v>0.156730227550828</v>
+        <v>0.1488714930353133</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03239722480589113</v>
+        <v>0.04039482411388329</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3840321445.98738</v>
+        <v>3837321186.044785</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1155830603838453</v>
+        <v>0.1513735297836769</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02695957785110647</v>
+        <v>0.02745415865621112</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1291601738.267334</v>
+        <v>1255619617.188171</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1487832242914082</v>
+        <v>0.1836341895523541</v>
       </c>
       <c r="G19" t="n">
-        <v>0.023490336900733</v>
+        <v>0.02155126879365975</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1949784783.879284</v>
+        <v>2177214783.538061</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1539347860919477</v>
+        <v>0.1506410980876103</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02821931835458475</v>
+        <v>0.01956775113410021</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2092174533.863183</v>
+        <v>1860029870.682329</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06738119434340102</v>
+        <v>0.08976254884040737</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03503850604328954</v>
+        <v>0.04130606023783173</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4011798824.395624</v>
+        <v>3679173796.409433</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1376217902123713</v>
+        <v>0.1206417438408143</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04203267970280557</v>
+        <v>0.04591299301454704</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1404365908.553801</v>
+        <v>1349051656.090029</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1781620587207019</v>
+        <v>0.1746310910158173</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05218207748036856</v>
+        <v>0.04023130728544297</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3802049047.87333</v>
+        <v>4027244319.208319</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1232721947322043</v>
+        <v>0.1235533476562241</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02636235898466831</v>
+        <v>0.03761690190421393</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1317790448.579103</v>
+        <v>954965976.3710059</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1018992255134624</v>
+        <v>0.07840563247271419</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02535602525723132</v>
+        <v>0.02117041965530948</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1290386695.512856</v>
+        <v>1119347843.314534</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1153128828158419</v>
+        <v>0.1007213845800147</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03870030373075934</v>
+        <v>0.02382692888587801</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3285495909.700929</v>
+        <v>4344928634.535019</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1367018245638939</v>
+        <v>0.1260967924250259</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0253652183981707</v>
+        <v>0.01709296937918688</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3648192372.102799</v>
+        <v>2894614683.001564</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1249367578793373</v>
+        <v>0.130561680886314</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04834992386176945</v>
+        <v>0.04420383185068455</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4660372661.540954</v>
+        <v>5883079120.98023</v>
       </c>
       <c r="F29" t="n">
-        <v>0.117811952598546</v>
+        <v>0.1484775596966423</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04476539321506028</v>
+        <v>0.03176507875516497</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2161400670.107306</v>
+        <v>2234286029.293547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1159707640425244</v>
+        <v>0.1274361280772152</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03728303281234134</v>
+        <v>0.0371346650939177</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>923055699.0958892</v>
+        <v>1174229958.174865</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09984510012319998</v>
+        <v>0.06965043836789055</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05051386930016791</v>
+        <v>0.0455282328569349</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1687162663.784075</v>
+        <v>1295607253.065529</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09914235210540528</v>
+        <v>0.1189631221300045</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02769256146309917</v>
+        <v>0.0387439477015248</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2661497826.684897</v>
+        <v>2902163373.00849</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1585079733384304</v>
+        <v>0.1319695260721557</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04377611308277433</v>
+        <v>0.05079457655804655</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1117828901.543662</v>
+        <v>1528561396.265692</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08993322098259965</v>
+        <v>0.1126706086206255</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01831316006003995</v>
+        <v>0.01962959432110403</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>855295834.1892256</v>
+        <v>1101095193.901827</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1105030804850957</v>
+        <v>0.102346477120345</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04501454380402215</v>
+        <v>0.03012089520267074</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2357212645.395264</v>
+        <v>2007663651.705887</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1745546839751744</v>
+        <v>0.1472544206413324</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02130545715891887</v>
+        <v>0.02481675465556655</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2553514143.695769</v>
+        <v>2026823352.733654</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08938975634468195</v>
+        <v>0.09493713730686695</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02650846527071914</v>
+        <v>0.03548219550281709</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1746544758.241545</v>
+        <v>2199751198.053561</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09748545513776183</v>
+        <v>0.09615924653983615</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02881340187167784</v>
+        <v>0.03100666910704915</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2079103049.009135</v>
+        <v>1410090811.577839</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1355839381709734</v>
+        <v>0.1582466961279473</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03132073963186684</v>
+        <v>0.02753857337882037</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1183261095.615571</v>
+        <v>1156092058.318432</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1284130293485843</v>
+        <v>0.09900899160949854</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04829723588766813</v>
+        <v>0.05942687378195978</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2151127962.382968</v>
+        <v>2911303671.771446</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1582109106498957</v>
+        <v>0.1095327661798699</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04118185482471893</v>
+        <v>0.04615986742888636</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2785554171.474259</v>
+        <v>2858837470.271439</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08906717030274973</v>
+        <v>0.1062574036022486</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03090817756278424</v>
+        <v>0.04157519362728159</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2347510474.622843</v>
+        <v>2600162027.612823</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1517710782455455</v>
+        <v>0.1679749366739149</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01851258127470291</v>
+        <v>0.02442353565794779</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2195950871.328914</v>
+        <v>2092770596.874199</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09246513600095199</v>
+        <v>0.06324090353415858</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02656833711468374</v>
+        <v>0.02262853807316558</v>
       </c>
       <c r="H44" t="b">
         <v>1</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1634256619.81618</v>
+        <v>1575391301.17023</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1205315569509225</v>
+        <v>0.1531469207689617</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04650814315761197</v>
+        <v>0.049417683933628</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4253414605.918638</v>
+        <v>4986709656.739374</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1414499260883781</v>
+        <v>0.1431715176026697</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04291432197986864</v>
+        <v>0.05793685265497748</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3435663393.875668</v>
+        <v>4720040098.652377</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1529329206436863</v>
+        <v>0.2023483225045206</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04565234108001606</v>
+        <v>0.04507975546039781</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3739678202.847475</v>
+        <v>3827411773.383458</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09542605714002463</v>
+        <v>0.07200609881961528</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02819503829007971</v>
+        <v>0.03000955666258694</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1891023876.819476</v>
+        <v>1953454801.293219</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1902438076313571</v>
+        <v>0.1935299250779915</v>
       </c>
       <c r="G49" t="n">
-        <v>0.027653589126735</v>
+        <v>0.04047985279867676</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3738465140.442524</v>
+        <v>3134982389.543412</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1434784943906563</v>
+        <v>0.1637419254433001</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03891916770788196</v>
+        <v>0.04205815381283381</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1119931099.458048</v>
+        <v>1165492611.384152</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1948033736511278</v>
+        <v>0.1826340683316845</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03480583882722751</v>
+        <v>0.03664238999093028</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5198463062.403577</v>
+        <v>3574034677.377163</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1044269700687466</v>
+        <v>0.1124674448016656</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05926426146582182</v>
+        <v>0.0453802657642277</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3051259894.092636</v>
+        <v>3402494271.342981</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2009030881860008</v>
+        <v>0.1340794191709077</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03278005724835317</v>
+        <v>0.02481784936673808</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3179949606.371871</v>
+        <v>4819692385.532475</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1617911461467586</v>
+        <v>0.1057184338573338</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03205684992239052</v>
+        <v>0.04576185121965647</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3645303343.886952</v>
+        <v>4162454251.328421</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2021373814813179</v>
+        <v>0.2152780913616842</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02191030111343921</v>
+        <v>0.02863053289823459</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1708818817.555591</v>
+        <v>1529567131.974168</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1063459230818755</v>
+        <v>0.105730487186224</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04447416490529904</v>
+        <v>0.04142215643710891</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3106467581.768242</v>
+        <v>3631171965.411632</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1532655924829106</v>
+        <v>0.119102104904665</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01877366413129757</v>
+        <v>0.02405005343237445</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1496400999.492433</v>
+        <v>1325335144.314684</v>
       </c>
       <c r="F58" t="n">
-        <v>0.13776387308876</v>
+        <v>0.1428294852149225</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03523378083520878</v>
+        <v>0.03433194560692706</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3804907877.833037</v>
+        <v>3274838939.431579</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1015096641707694</v>
+        <v>0.118804365379677</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05004236230395846</v>
+        <v>0.04423738393704529</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2614624727.265762</v>
+        <v>3117335168.843206</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1894851487837278</v>
+        <v>0.148330112065695</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02882880556359972</v>
+        <v>0.02362493315503379</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2650812551.800495</v>
+        <v>2686571951.722516</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1417790465681303</v>
+        <v>0.1293239093730873</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02105417679670218</v>
+        <v>0.0305283610858141</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1584163921.251275</v>
+        <v>1691614953.498909</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1339153592671682</v>
+        <v>0.1625630549183667</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03231603981052662</v>
+        <v>0.03012071133706369</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3621960781.127075</v>
+        <v>4462191549.339378</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0706271206773298</v>
+        <v>0.07874225806931368</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02990990133331144</v>
+        <v>0.03052528081669112</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4017602894.414487</v>
+        <v>5441006004.413215</v>
       </c>
       <c r="F64" t="n">
-        <v>0.153487860125957</v>
+        <v>0.1410875474192208</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02523858028702125</v>
+        <v>0.02739367858714753</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3984921115.880543</v>
+        <v>4543362099.259594</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1513774322106615</v>
+        <v>0.1546269617853363</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02088366202340387</v>
+        <v>0.02484738544732466</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5158305245.231446</v>
+        <v>4243986589.506903</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1051419595011523</v>
+        <v>0.1386692390936078</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05108377956038981</v>
+        <v>0.03138612432736207</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2678126961.253442</v>
+        <v>3031946114.357363</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0759523235754104</v>
+        <v>0.08568399281605921</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05072149821231499</v>
+        <v>0.03663762424876621</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4931679167.123692</v>
+        <v>5774123926.742641</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1139169334179771</v>
+        <v>0.1214762558130829</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0446441385037274</v>
+        <v>0.04552003439968967</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1821979374.620343</v>
+        <v>1946188752.879653</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1225692943752185</v>
+        <v>0.1372660643490453</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05741136142490472</v>
+        <v>0.04152490206443647</v>
       </c>
       <c r="H69" t="b">
         <v>1</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2613036757.171735</v>
+        <v>2786821044.472694</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08447025702792545</v>
+        <v>0.09766558932224201</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03299184451837642</v>
+        <v>0.04605882225432401</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3714299294.476583</v>
+        <v>5661272023.675014</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1532527643335873</v>
+        <v>0.1392029826028494</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02385348893688734</v>
+        <v>0.03188344787116897</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1538813360.702411</v>
+        <v>2137943366.542959</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1048363646450766</v>
+        <v>0.07162490908758597</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03584482919320059</v>
+        <v>0.04150201602718925</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2292983451.082337</v>
+        <v>3529987549.933218</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0878406268852486</v>
+        <v>0.1039406533154953</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03457599319014206</v>
+        <v>0.05256739236345941</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3703813948.663966</v>
+        <v>3322104104.508258</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1720743020479021</v>
+        <v>0.1485579166621231</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03159860057606192</v>
+        <v>0.03050746079401108</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2482050021.850769</v>
+        <v>2159101423.518889</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1621303859827447</v>
+        <v>0.1264437176074875</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02736131905103169</v>
+        <v>0.03097866911187909</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4061907683.340776</v>
+        <v>3499464778.710143</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1187463087863593</v>
+        <v>0.1085954529050729</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02935069864904866</v>
+        <v>0.02672099556386833</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2105185087.178092</v>
+        <v>2200966569.918753</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1511151495721677</v>
+        <v>0.1546480297353721</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02276180778684963</v>
+        <v>0.02687568828520529</v>
       </c>
       <c r="H77" t="b">
         <v>1</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4532326022.517574</v>
+        <v>4565453546.717071</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09726866543782339</v>
+        <v>0.1297047760011167</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0436962533978547</v>
+        <v>0.04684924536329173</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1222882729.265362</v>
+        <v>1420493189.259571</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1563778343836743</v>
+        <v>0.1204033512487826</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02962685344661822</v>
+        <v>0.03035381539217222</v>
       </c>
       <c r="H79" t="b">
         <v>1</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3852258239.576035</v>
+        <v>3804024331.398133</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06886897354890591</v>
+        <v>0.09162334779626419</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02688004204338612</v>
+        <v>0.03381518485887619</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3375813622.705574</v>
+        <v>3423688042.243132</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1091265539380782</v>
+        <v>0.1120863590584321</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0327697928991946</v>
+        <v>0.02990108526424242</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3949980636.971667</v>
+        <v>3755025130.02584</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1713754911173084</v>
+        <v>0.1565089619416971</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0264577804583753</v>
+        <v>0.02790415147028043</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1663527544.633881</v>
+        <v>2177249424.317508</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1432414016189184</v>
+        <v>0.1445327180023196</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03504197350588188</v>
+        <v>0.038153410690629</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1683767833.005672</v>
+        <v>2050752673.538946</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1212654606231351</v>
+        <v>0.1200017975587713</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04000970353771412</v>
+        <v>0.04236070240338925</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2768209430.573771</v>
+        <v>2896091565.23704</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1732376562718884</v>
+        <v>0.116746171966787</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04938772534248066</v>
+        <v>0.05421463772316867</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2675636867.978552</v>
+        <v>1907454154.374648</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1559895641618746</v>
+        <v>0.1059674894800083</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02355067372080843</v>
+        <v>0.02710356906507058</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1152953754.819057</v>
+        <v>908451319.0369278</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1512938082237321</v>
+        <v>0.1511391537131857</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03965857126395006</v>
+        <v>0.03834783578693212</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2439982953.118954</v>
+        <v>2993009275.598194</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1769914085808093</v>
+        <v>0.1343537658987306</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02424659372139938</v>
+        <v>0.03409074819849776</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3112053558.681845</v>
+        <v>3513194261.80234</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1544195053828049</v>
+        <v>0.1434830984173381</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03674128927995081</v>
+        <v>0.03217477264107132</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1438274045.478777</v>
+        <v>1527977722.871578</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0922563631119412</v>
+        <v>0.1042374682655102</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03988955728982718</v>
+        <v>0.04729689504214681</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2067371439.964073</v>
+        <v>1594321468.734407</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1324219031766518</v>
+        <v>0.1572852031387145</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05870336770587061</v>
+        <v>0.03987189696316473</v>
       </c>
       <c r="H91" t="b">
         <v>1</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2783018193.946646</v>
+        <v>2686899957.441339</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07347677987642144</v>
+        <v>0.1098756699774184</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03530712654615505</v>
+        <v>0.03789728195434177</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3299978926.369856</v>
+        <v>5025286699.668058</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1308704440330862</v>
+        <v>0.1333995151946934</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0440159967621185</v>
+        <v>0.05393879180814962</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1848425031.853373</v>
+        <v>2244751263.906229</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1466323450680404</v>
+        <v>0.1017260512570088</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03295780405998629</v>
+        <v>0.04033158195896019</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2186792805.435074</v>
+        <v>2105881352.038733</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1239416008304599</v>
+        <v>0.1230080747693661</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04999145876811147</v>
+        <v>0.04386830735518847</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2134487240.694306</v>
+        <v>1885907325.232633</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1349642697057584</v>
+        <v>0.1342238191883177</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03805871514356976</v>
+        <v>0.04490726607596349</v>
       </c>
       <c r="H96" t="b">
         <v>1</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4126189775.709789</v>
+        <v>4609354615.370888</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1364357559177055</v>
+        <v>0.1079207896930978</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02907982649864758</v>
+        <v>0.02800987759230083</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3804883664.231514</v>
+        <v>3677587298.533576</v>
       </c>
       <c r="F98" t="n">
-        <v>0.089149543369772</v>
+        <v>0.1173418609072686</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03028575260156588</v>
+        <v>0.02158657250451572</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2424397830.761501</v>
+        <v>2940044871.114881</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1192386240871685</v>
+        <v>0.09494316412143487</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02335256743493505</v>
+        <v>0.02140739558006978</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3309117923.47385</v>
+        <v>3582634490.313689</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1479649367512727</v>
+        <v>0.1587608348586136</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01787462237392569</v>
+        <v>0.02242853738150516</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2656399078.352269</v>
+        <v>2808814229.313894</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2051764676428577</v>
+        <v>0.1648309328169868</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05834963733312341</v>
+        <v>0.05610971105666307</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_1.xlsx
+++ b/output/fit_clients/fit_round_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2111441867.130275</v>
+        <v>2187092592.339731</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07024957672997201</v>
+        <v>0.07272057983374079</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03523822187339281</v>
+        <v>0.04430102078063313</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1908143587.76965</v>
+        <v>2364870418.040338</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1358427513767374</v>
+        <v>0.1139746446399527</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04356699079766427</v>
+        <v>0.041890049979445</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3266213214.593129</v>
+        <v>4974947352.330841</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1653560819257934</v>
+        <v>0.1425376128503724</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0312500327676812</v>
+        <v>0.03157056514960222</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3045202519.861518</v>
+        <v>2738000543.451734</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09486545895378379</v>
+        <v>0.1018404541243084</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05002047390935773</v>
+        <v>0.04964379384333566</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2515599034.547793</v>
+        <v>2029054162.581211</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1153972027943352</v>
+        <v>0.1168136616563037</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05677834927329919</v>
+        <v>0.05515795937664619</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3103160413.036255</v>
+        <v>2998514604.304828</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07878495165840521</v>
+        <v>0.0915215988785846</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04192241421356036</v>
+        <v>0.03353427988887137</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3281587957.688446</v>
+        <v>3944630537.587116</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1511220141072499</v>
+        <v>0.2054152098914928</v>
       </c>
       <c r="G8" t="n">
-        <v>0.033239669505695</v>
+        <v>0.03053014879941498</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2238642376.008054</v>
+        <v>2185695343.158096</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1592811781916173</v>
+        <v>0.1603605209390985</v>
       </c>
       <c r="G9" t="n">
-        <v>0.027955998358878</v>
+        <v>0.03688189746501212</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4893444563.904825</v>
+        <v>5609001048.914577</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1616533617126551</v>
+        <v>0.1765809979054863</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04889135619079973</v>
+        <v>0.03396282709632907</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +810,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2906877924.365947</v>
+        <v>3673358035.936554</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1315663756395958</v>
+        <v>0.169187773864933</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04766138391971203</v>
+        <v>0.04957972369657528</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +845,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2740802209.493621</v>
+        <v>2448671427.628977</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1678448886898377</v>
+        <v>0.1232165890689795</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03566274060478544</v>
+        <v>0.03308721483440304</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +880,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4682067220.34626</v>
+        <v>4501471958.161355</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09280523194141177</v>
+        <v>0.07557274481398818</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02651667129923891</v>
+        <v>0.02558313012070535</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +915,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3189468824.302737</v>
+        <v>3728481578.635397</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1737295170497578</v>
+        <v>0.173981966051588</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03796050774840708</v>
+        <v>0.03118651733139481</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +956,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1467234913.753832</v>
+        <v>1300855260.635315</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1069540848461515</v>
+        <v>0.09906733501966136</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04425290308442635</v>
+        <v>0.04089733756154413</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +985,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2651282513.970066</v>
+        <v>2332621062.473096</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1004209828688612</v>
+        <v>0.08078026944124825</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04559133772054953</v>
+        <v>0.05172922618333173</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1020,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3686131157.922581</v>
+        <v>3427765963.612596</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1488714930353133</v>
+        <v>0.1231731369554733</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04039482411388329</v>
+        <v>0.05099788158969783</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1055,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3837321186.044785</v>
+        <v>3866985553.056606</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1513735297836769</v>
+        <v>0.1797598402862747</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02745415865621112</v>
+        <v>0.03332160814444796</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1096,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1255619617.188171</v>
+        <v>1058184080.939195</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1836341895523541</v>
+        <v>0.1822927119655007</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02155126879365975</v>
+        <v>0.02302760656736983</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1131,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2177214783.538061</v>
+        <v>1911352401.766836</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1506410980876103</v>
+        <v>0.1353398291622497</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01956775113410021</v>
+        <v>0.02917122267820795</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1160,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1860029870.682329</v>
+        <v>2513262535.300875</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08976254884040737</v>
+        <v>0.08117756223857854</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04130606023783173</v>
+        <v>0.04459817880490377</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1195,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3679173796.409433</v>
+        <v>3688575146.253878</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1206417438408143</v>
+        <v>0.1065404350832486</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04591299301454704</v>
+        <v>0.03654668873619357</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1230,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1349051656.090029</v>
+        <v>1434472339.456795</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1746310910158173</v>
+        <v>0.1465396761154966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04023130728544297</v>
+        <v>0.03411302960645649</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1271,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4027244319.208319</v>
+        <v>2728890374.254311</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1235533476562241</v>
+        <v>0.1419002346920869</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03761690190421393</v>
+        <v>0.03630387506172967</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1300,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>954965976.3710059</v>
+        <v>1389199522.313744</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07840563247271419</v>
+        <v>0.08301081766802805</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02117041965530948</v>
+        <v>0.0255918249889828</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1335,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1119347843.314534</v>
+        <v>1449182060.297231</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1007213845800147</v>
+        <v>0.09180604113342787</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02382692888587801</v>
+        <v>0.0280743185111843</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1376,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4344928634.535019</v>
+        <v>3441589918.483619</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1260967924250259</v>
+        <v>0.1510155584674815</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01709296937918688</v>
+        <v>0.02168318533159425</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1405,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2894614683.001564</v>
+        <v>3781119895.394012</v>
       </c>
       <c r="F28" t="n">
-        <v>0.130561680886314</v>
+        <v>0.09336566243064577</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04420383185068455</v>
+        <v>0.0314549969405457</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1440,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5883079120.98023</v>
+        <v>4683747513.525413</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1484775596966423</v>
+        <v>0.1077335936479913</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03176507875516497</v>
+        <v>0.03375720640789465</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1475,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2234286029.293547</v>
+        <v>1584207161.592921</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1274361280772152</v>
+        <v>0.1395599578193456</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0371346650939177</v>
+        <v>0.02563421795756112</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1510,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1174229958.174865</v>
+        <v>1097856319.08405</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06965043836789055</v>
+        <v>0.07673977922639214</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0455282328569349</v>
+        <v>0.04164412883460994</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1545,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1295607253.065529</v>
+        <v>1543011341.612078</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1189631221300045</v>
+        <v>0.093259312907382</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0387439477015248</v>
+        <v>0.02634851589890798</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1580,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2902163373.00849</v>
+        <v>2408677370.216956</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1319695260721557</v>
+        <v>0.1305320673405757</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05079457655804655</v>
+        <v>0.04389786827416343</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1615,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1528561396.265692</v>
+        <v>950660407.5266867</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1126706086206255</v>
+        <v>0.0835337558565033</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01962959432110403</v>
+        <v>0.02019744769802179</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1656,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1101095193.901827</v>
+        <v>988187146.1108873</v>
       </c>
       <c r="F35" t="n">
-        <v>0.102346477120345</v>
+        <v>0.07643533294119838</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03012089520267074</v>
+        <v>0.03305297807717184</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1685,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2007663651.705887</v>
+        <v>2841709832.90524</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1472544206413324</v>
+        <v>0.1560190181377827</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02481675465556655</v>
+        <v>0.0190866370564212</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1720,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2026823352.733654</v>
+        <v>1805014107.482938</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09493713730686695</v>
+        <v>0.06765269736039047</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03548219550281709</v>
+        <v>0.02756579480186451</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1755,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2199751198.053561</v>
+        <v>1514199992.340206</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09615924653983615</v>
+        <v>0.1097765524955126</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03100666910704915</v>
+        <v>0.02463506117702458</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1790,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1410090811.577839</v>
+        <v>1359118546.37794</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1582466961279473</v>
+        <v>0.1828520802883387</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02753857337882037</v>
+        <v>0.02556293405940194</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1831,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1156092058.318432</v>
+        <v>1155233759.373757</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09900899160949854</v>
+        <v>0.1528246459438644</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05942687378195978</v>
+        <v>0.04949852187403628</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1866,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2911303671.771446</v>
+        <v>2551619916.503606</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1095327661798699</v>
+        <v>0.1254405664454318</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04615986742888636</v>
+        <v>0.03343425471050497</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1895,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2858837470.271439</v>
+        <v>3269109326.53156</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1062574036022486</v>
+        <v>0.08747889686295771</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04157519362728159</v>
+        <v>0.04656670175664354</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1936,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2600162027.612823</v>
+        <v>3062291728.877906</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1679749366739149</v>
+        <v>0.2043730933313613</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02442353565794779</v>
+        <v>0.01977173246210315</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1965,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2092770596.874199</v>
+        <v>2302260989.274532</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06324090353415858</v>
+        <v>0.09867148149166799</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02262853807316558</v>
+        <v>0.03073412983046671</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2006,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1575391301.17023</v>
+        <v>2495797485.356141</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1531469207689617</v>
+        <v>0.1590668196651625</v>
       </c>
       <c r="G45" t="n">
-        <v>0.049417683933628</v>
+        <v>0.05613348118599137</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2035,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4986709656.739374</v>
+        <v>4883038866.107866</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1431715176026697</v>
+        <v>0.1770020332777447</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05793685265497748</v>
+        <v>0.03833813285442333</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2070,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4720040098.652377</v>
+        <v>3125339755.910406</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2023483225045206</v>
+        <v>0.1242505049351477</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04507975546039781</v>
+        <v>0.03973162097805651</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2105,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3827411773.383458</v>
+        <v>3835870273.014796</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07200609881961528</v>
+        <v>0.07341385963040402</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03000955666258694</v>
+        <v>0.03244797046837881</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2140,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1953454801.293219</v>
+        <v>1485985589.998095</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1935299250779915</v>
+        <v>0.1262037204234437</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04047985279867676</v>
+        <v>0.03823509184515688</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2181,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3134982389.543412</v>
+        <v>3634615839.346905</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1637419254433001</v>
+        <v>0.1437682404299697</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04205815381283381</v>
+        <v>0.03910459519936432</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2210,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1165492611.384152</v>
+        <v>1006891039.539529</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1826340683316845</v>
+        <v>0.1886366783078612</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03664238999093028</v>
+        <v>0.04712471547310962</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2251,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3574034677.377163</v>
+        <v>5003887953.735591</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1124674448016656</v>
+        <v>0.1048095265796754</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0453802657642277</v>
+        <v>0.0487641433758346</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
       </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2280,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3402494271.342981</v>
+        <v>2742118655.873404</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1340794191709077</v>
+        <v>0.1982487045282392</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02481784936673808</v>
+        <v>0.0324205878284022</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2315,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4819692385.532475</v>
+        <v>3771567674.57148</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1057184338573338</v>
+        <v>0.1347038372541539</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04576185121965647</v>
+        <v>0.03903676309119349</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2356,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4162454251.328421</v>
+        <v>3606652948.221568</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2152780913616842</v>
+        <v>0.1493249350782424</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02863053289823459</v>
+        <v>0.03057080952787447</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2385,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1529567131.974168</v>
+        <v>1140610520.435682</v>
       </c>
       <c r="F56" t="n">
-        <v>0.105730487186224</v>
+        <v>0.1431676697109275</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04142215643710891</v>
+        <v>0.04041876413257983</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2420,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3631171965.411632</v>
+        <v>4506297530.248148</v>
       </c>
       <c r="F57" t="n">
-        <v>0.119102104904665</v>
+        <v>0.1691922024275887</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02405005343237445</v>
+        <v>0.01810749896990414</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
       </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2455,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1325335144.314684</v>
+        <v>1498133034.92632</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1428294852149225</v>
+        <v>0.1608200165926144</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03433194560692706</v>
+        <v>0.02432107896871272</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2496,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3274838939.431579</v>
+        <v>4880175493.190314</v>
       </c>
       <c r="F59" t="n">
-        <v>0.118804365379677</v>
+        <v>0.1254039642376138</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04423738393704529</v>
+        <v>0.03166804087293422</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
       </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2525,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3117335168.843206</v>
+        <v>2277731501.725276</v>
       </c>
       <c r="F60" t="n">
-        <v>0.148330112065695</v>
+        <v>0.1564804433024486</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02362493315503379</v>
+        <v>0.02928180518791453</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2560,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2686571951.722516</v>
+        <v>2196225777.340207</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1293239093730873</v>
+        <v>0.1441420448261147</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0305283610858141</v>
+        <v>0.02578232926772085</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2595,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1691614953.498909</v>
+        <v>1362127396.81401</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1625630549183667</v>
+        <v>0.1779151580305385</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03012071133706369</v>
+        <v>0.04300985892440674</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2630,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4462191549.339378</v>
+        <v>4924480370.888538</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07874225806931368</v>
+        <v>0.07726700342970175</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03052528081669112</v>
+        <v>0.0289332966683936</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2671,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5441006004.413215</v>
+        <v>5227967494.188768</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1410875474192208</v>
+        <v>0.1794002370909997</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02739367858714753</v>
+        <v>0.02299782901362313</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2700,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4543362099.259594</v>
+        <v>4742046130.300046</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1546269617853363</v>
+        <v>0.1499542150161129</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02484738544732466</v>
+        <v>0.02614566750972658</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2735,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4243986589.506903</v>
+        <v>5182820704.288929</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1386692390936078</v>
+        <v>0.1485182283896503</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03138612432736207</v>
+        <v>0.04625353752744268</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2770,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3031946114.357363</v>
+        <v>3307468594.80704</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08568399281605921</v>
+        <v>0.07608804956627355</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03663762424876621</v>
+        <v>0.04831122495308612</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2805,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5774123926.742641</v>
+        <v>4155735528.651393</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1214762558130829</v>
+        <v>0.09783895564486181</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04552003439968967</v>
+        <v>0.03440210245866891</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2840,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1946188752.879653</v>
+        <v>2108685974.884937</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1372660643490453</v>
+        <v>0.1475042934423759</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04152490206443647</v>
+        <v>0.04454839255044584</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2875,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2786821044.472694</v>
+        <v>2590200543.838602</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09766558932224201</v>
+        <v>0.07413424026369514</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04605882225432401</v>
+        <v>0.03169871166498089</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2910,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5661272023.675014</v>
+        <v>5248918206.915025</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1392029826028494</v>
+        <v>0.1746382663587303</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03188344787116897</v>
+        <v>0.02072914376056787</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2951,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2137943366.542959</v>
+        <v>1781220318.331935</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07162490908758597</v>
+        <v>0.1003107607445035</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04150201602718925</v>
+        <v>0.04753815764478841</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +2980,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3529987549.933218</v>
+        <v>2551506885.519429</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1039406533154953</v>
+        <v>0.08533707021654637</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05256739236345941</v>
+        <v>0.03709689929727339</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3015,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3322104104.508258</v>
+        <v>3051881509.087054</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1485579166621231</v>
+        <v>0.1324753168989754</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03050746079401108</v>
+        <v>0.02944551527758186</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3050,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2159101423.518889</v>
+        <v>2131826847.169358</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1264437176074875</v>
+        <v>0.1446639859752028</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03097866911187909</v>
+        <v>0.03502561427359119</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3085,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3499464778.710143</v>
+        <v>3987305717.090656</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1085954529050729</v>
+        <v>0.1010498088056212</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02672099556386833</v>
+        <v>0.02094283105108044</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3126,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2200966569.918753</v>
+        <v>2217569531.786264</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1546480297353721</v>
+        <v>0.1301811295085812</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02687568828520529</v>
+        <v>0.03058144708916257</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3155,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4565453546.717071</v>
+        <v>4282075314.094131</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1297047760011167</v>
+        <v>0.1217848363092524</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04684924536329173</v>
+        <v>0.04688907604140716</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3190,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1420493189.259571</v>
+        <v>1158126271.42032</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1204033512487826</v>
+        <v>0.133805457039649</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03035381539217222</v>
+        <v>0.03564446229414885</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3231,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3804024331.398133</v>
+        <v>3687473769.185205</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09162334779626419</v>
+        <v>0.06966448903428769</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03381518485887619</v>
+        <v>0.03127085648026359</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3260,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3423688042.243132</v>
+        <v>3574174413.776015</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1120863590584321</v>
+        <v>0.1176364243366934</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02990108526424242</v>
+        <v>0.02418867514523964</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3295,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3755025130.02584</v>
+        <v>5578792216.304154</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1565089619416971</v>
+        <v>0.1617284049991605</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02790415147028043</v>
+        <v>0.02020449197640672</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
       </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3330,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2177249424.317508</v>
+        <v>1804543875.814121</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1445327180023196</v>
+        <v>0.1174751228162417</v>
       </c>
       <c r="G83" t="n">
-        <v>0.038153410690629</v>
+        <v>0.03414459146669514</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3371,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2050752673.538946</v>
+        <v>2347108397.043785</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1200017975587713</v>
+        <v>0.1021783571372253</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04236070240338925</v>
+        <v>0.05066353641017159</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3406,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2896091565.23704</v>
+        <v>2779227446.612962</v>
       </c>
       <c r="F85" t="n">
-        <v>0.116746171966787</v>
+        <v>0.1769479870480201</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05421463772316867</v>
+        <v>0.04009023175645356</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3441,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1907454154.374648</v>
+        <v>1924185908.658222</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1059674894800083</v>
+        <v>0.1348063207953577</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02710356906507058</v>
+        <v>0.02312137138623586</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3470,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>908451319.0369278</v>
+        <v>962206217.2490065</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1511391537131857</v>
+        <v>0.1662110313599591</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03834783578693212</v>
+        <v>0.03789572067677769</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3505,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2993009275.598194</v>
+        <v>3049778447.615843</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1343537658987306</v>
+        <v>0.1283282338837138</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03409074819849776</v>
+        <v>0.03760855239577419</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3540,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3513194261.80234</v>
+        <v>3434537494.678387</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1434830984173381</v>
+        <v>0.1086742514897693</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03217477264107132</v>
+        <v>0.04061902845760491</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3575,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1527977722.871578</v>
+        <v>2075736846.035911</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1042374682655102</v>
+        <v>0.1275606480587082</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04729689504214681</v>
+        <v>0.04060561679275945</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3610,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1594321468.734407</v>
+        <v>1660376225.252961</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1572852031387145</v>
+        <v>0.1221267124956184</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03987189696316473</v>
+        <v>0.05343893339485058</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3651,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2686899957.441339</v>
+        <v>1831648975.422602</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1098756699774184</v>
+        <v>0.1073788617680354</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03789728195434177</v>
+        <v>0.04491034694882685</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3680,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5025286699.668058</v>
+        <v>4123790154.722331</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1333995151946934</v>
+        <v>0.1420447664301195</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05393879180814962</v>
+        <v>0.04237055793557332</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3715,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2244751263.906229</v>
+        <v>1805797538.511807</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1017260512570088</v>
+        <v>0.1475756265843292</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04033158195896019</v>
+        <v>0.02795185819726149</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3750,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2105881352.038733</v>
+        <v>2476454745.292256</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1230080747693661</v>
+        <v>0.1154623622121223</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04386830735518847</v>
+        <v>0.05090359005178995</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3785,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1885907325.232633</v>
+        <v>2016697914.583458</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1342238191883177</v>
+        <v>0.09815788842398684</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04490726607596349</v>
+        <v>0.0330692676861107</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3820,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4609354615.370888</v>
+        <v>4991099592.887299</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1079207896930978</v>
+        <v>0.1535403984903803</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02800987759230083</v>
+        <v>0.02156850163413392</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3855,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3677587298.533576</v>
+        <v>2408177393.658823</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1173418609072686</v>
+        <v>0.1191040858393861</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02158657250451572</v>
+        <v>0.02916945640036492</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3890,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2940044871.114881</v>
+        <v>2209417779.026643</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09494316412143487</v>
+        <v>0.1104584823838276</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02140739558006978</v>
+        <v>0.02298252458831263</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3925,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3582634490.313689</v>
+        <v>4058996328.59023</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1587608348586136</v>
+        <v>0.1430392172374761</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02242853738150516</v>
+        <v>0.02350878545619899</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
       </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +3960,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2808814229.313894</v>
+        <v>2876721588.182294</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1648309328169868</v>
+        <v>0.1949635317423531</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05610971105666307</v>
+        <v>0.05482811626130919</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/fit_clients/fit_round_1.xlsx
+++ b/output/fit_clients/fit_round_1.xlsx
@@ -490,19 +490,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1033</v>
+        <v>885</v>
       </c>
       <c r="D2" t="n">
-        <v>1871008356.655941</v>
+        <v>5239470714.721815</v>
       </c>
       <c r="E2" t="n">
-        <v>0.191041885960971</v>
+        <v>0.1821455786429823</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05915526101964614</v>
+        <v>0.03351797772149529</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1131</v>
+        <v>871</v>
       </c>
       <c r="D3" t="n">
-        <v>1126963086.759328</v>
+        <v>2953092708.145045</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06381525403447522</v>
+        <v>0.07839129512107137</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04648507641617817</v>
+        <v>0.03454798029077175</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -558,22 +558,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1046</v>
+        <v>963</v>
       </c>
       <c r="D4" t="n">
-        <v>922904678.5154418</v>
+        <v>3605512005.87045</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1110882147799676</v>
+        <v>0.1349593982521957</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03442097115548139</v>
+        <v>0.0187027477012969</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1164</v>
+        <v>1086</v>
       </c>
       <c r="D5" t="n">
-        <v>4529334163.119063</v>
+        <v>2957913834.150559</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1946177199648703</v>
+        <v>0.07455185609581957</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02389161138559068</v>
+        <v>0.04286544961418246</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>845</v>
+        <v>1015</v>
       </c>
       <c r="D6" t="n">
-        <v>4222419618.294488</v>
+        <v>2134720542.692244</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1340146930046458</v>
+        <v>0.1410994466425255</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03378006328770777</v>
+        <v>0.04335932274062149</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -660,19 +660,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>817</v>
+        <v>1035</v>
       </c>
       <c r="D7" t="n">
-        <v>5141935466.323244</v>
+        <v>2213330091.698111</v>
       </c>
       <c r="E7" t="n">
-        <v>0.146323653465219</v>
+        <v>0.1598531799757669</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03433492510499565</v>
+        <v>0.02090299171646826</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -694,19 +694,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1084</v>
+        <v>918</v>
       </c>
       <c r="D8" t="n">
-        <v>2125490149.213106</v>
+        <v>3487221839.314843</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1894883534373789</v>
+        <v>0.1469476821727007</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03615951917597495</v>
+        <v>0.01757497925819432</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -728,22 +728,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>913</v>
+        <v>950</v>
       </c>
       <c r="D9" t="n">
-        <v>980962881.9424196</v>
+        <v>2865978479.844467</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06729760828713138</v>
+        <v>0.1136677539503458</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05484841389143675</v>
+        <v>0.03164714617722178</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1010</v>
+        <v>1217</v>
       </c>
       <c r="D10" t="n">
-        <v>1440609269.851507</v>
+        <v>3044581560.392344</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09212006928969028</v>
+        <v>0.0859049692543451</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02702891242630426</v>
+        <v>0.03370660543384568</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -796,22 +796,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1035</v>
+        <v>1010</v>
       </c>
       <c r="D11" t="n">
-        <v>4628918195.163282</v>
+        <v>1035843152.491762</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1034941356345953</v>
+        <v>0.1349985724223364</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02640009136911071</v>
+        <v>0.04661976552524751</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -830,19 +830,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1091</v>
+        <v>1160</v>
       </c>
       <c r="D12" t="n">
-        <v>1414529492.713661</v>
+        <v>1753338783.022264</v>
       </c>
       <c r="E12" t="n">
-        <v>0.081588881242524</v>
+        <v>0.09348547351818511</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02201887212747553</v>
+        <v>0.02071640187138571</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1132</v>
+        <v>1168</v>
       </c>
       <c r="D13" t="n">
-        <v>1416890020.151166</v>
+        <v>2590198533.663075</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1032845940129015</v>
+        <v>0.07698421726325075</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01800755137626745</v>
+        <v>0.02087386240636495</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -898,19 +898,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1032</v>
+        <v>1045</v>
       </c>
       <c r="D14" t="n">
-        <v>4678222482.09261</v>
+        <v>5066369599.549379</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1083119843852492</v>
+        <v>0.07568879289863005</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03456146603319175</v>
+        <v>0.04187259854446019</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -932,22 +932,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1053</v>
+        <v>1095</v>
       </c>
       <c r="D15" t="n">
-        <v>3176375489.363617</v>
+        <v>2332367175.25314</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07578884924098508</v>
+        <v>0.1018377225603912</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04440218911290576</v>
+        <v>0.02805919906758951</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1057</v>
+        <v>1027</v>
       </c>
       <c r="D16" t="n">
-        <v>3711403660.295556</v>
+        <v>2372994565.055654</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1657451595492891</v>
+        <v>0.1423273904613291</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0249533502855363</v>
+        <v>0.04689809235929482</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1000,22 +1000,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1038</v>
+        <v>848</v>
       </c>
       <c r="D17" t="n">
-        <v>2990919088.589089</v>
+        <v>3835082660.927962</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1580543401485059</v>
+        <v>0.1326296273848662</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03911383082174065</v>
+        <v>0.03206883923385131</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1034,22 +1034,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>968</v>
+        <v>1081</v>
       </c>
       <c r="D18" t="n">
-        <v>4136044546.139667</v>
+        <v>1369002695.384584</v>
       </c>
       <c r="E18" t="n">
-        <v>0.157005302083676</v>
+        <v>0.1439032781890016</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03658694902166196</v>
+        <v>0.0331311329737906</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>850</v>
+        <v>899</v>
       </c>
       <c r="D19" t="n">
-        <v>2973132536.177366</v>
+        <v>5763708018.963829</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2085382296742037</v>
+        <v>0.1011642050451764</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0447433655955173</v>
+        <v>0.03882488299639935</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1003</v>
+        <v>955</v>
       </c>
       <c r="D20" t="n">
-        <v>2073512437.865141</v>
+        <v>2855088456.908938</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1649662752354638</v>
+        <v>0.105679796542996</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02965006668415138</v>
+        <v>0.02143089243693692</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1145</v>
+        <v>1156</v>
       </c>
       <c r="D21" t="n">
-        <v>3627971189.729856</v>
+        <v>2271415375.333888</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1973554620038612</v>
+        <v>0.1856313803522169</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0542021316765078</v>
+        <v>0.02362519017046082</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1170,19 +1170,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1212</v>
+        <v>907</v>
       </c>
       <c r="D22" t="n">
-        <v>1747866800.189404</v>
+        <v>3245526804.869506</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1229837533497324</v>
+        <v>0.08465850174540748</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0364242936906609</v>
+        <v>0.02204831132005818</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1204,19 +1204,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>883</v>
+        <v>1101</v>
       </c>
       <c r="D23" t="n">
-        <v>4035969565.52805</v>
+        <v>1947603321.575096</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1691600566707099</v>
+        <v>0.1048760420863025</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01559782701185745</v>
+        <v>0.03980926518662609</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>979</v>
+        <v>1065</v>
       </c>
       <c r="D24" t="n">
-        <v>2499852259.326696</v>
+        <v>4900279593.68716</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1757813700169896</v>
+        <v>0.1215795792299351</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02709883297020509</v>
+        <v>0.03847125438339453</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1104</v>
+        <v>1078</v>
       </c>
       <c r="D25" t="n">
-        <v>2920614253.407533</v>
+        <v>4734820463.766085</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1429810808151008</v>
+        <v>0.08428594681704081</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04346437227919885</v>
+        <v>0.03589538206673918</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1306,22 +1306,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>983</v>
+        <v>1025</v>
       </c>
       <c r="D26" t="n">
-        <v>1783012823.299926</v>
+        <v>4076067960.794373</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1736314128670994</v>
+        <v>0.118057689107297</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04696394417135281</v>
+        <v>0.05455491200022802</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1340,19 +1340,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>937</v>
+        <v>788</v>
       </c>
       <c r="D27" t="n">
-        <v>2810240996.915677</v>
+        <v>1124774905.070267</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1088061048371533</v>
+        <v>0.1800881281341675</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05081881560857894</v>
+        <v>0.05977853548850167</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1018</v>
+        <v>801</v>
       </c>
       <c r="D28" t="n">
-        <v>3826009669.592659</v>
+        <v>2068791934.641371</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1261398884806603</v>
+        <v>0.1325439979643178</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05368888353205353</v>
+        <v>0.0453188711884616</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1036</v>
+        <v>1165</v>
       </c>
       <c r="D29" t="n">
-        <v>3334204452.803886</v>
+        <v>3672415147.146339</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09709615105779117</v>
+        <v>0.08814843893395041</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03227414264330104</v>
+        <v>0.04460124824518721</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1442,19 +1442,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>796</v>
+        <v>921</v>
       </c>
       <c r="D30" t="n">
-        <v>3225005605.203365</v>
+        <v>1565882504.941661</v>
       </c>
       <c r="E30" t="n">
-        <v>0.09313309510985146</v>
+        <v>0.1171983355866942</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04778908972304641</v>
+        <v>0.04369693796607782</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>984</v>
+        <v>1087</v>
       </c>
       <c r="D31" t="n">
-        <v>4535133481.325343</v>
+        <v>4728624554.101811</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1171658022936052</v>
+        <v>0.1319203645771287</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04677382157571607</v>
+        <v>0.04520836174745002</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D32" t="n">
-        <v>2962538203.303224</v>
+        <v>2241603795.356837</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1718090430784504</v>
+        <v>0.1522489464391205</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02677066169841168</v>
+        <v>0.03867644645881275</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D33" t="n">
-        <v>5429023085.53977</v>
+        <v>4033105389.325716</v>
       </c>
       <c r="E33" t="n">
-        <v>0.131545101473944</v>
+        <v>0.2066763139884339</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03935848389034004</v>
+        <v>0.03161311637463653</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="D34" t="n">
-        <v>2341172886.693774</v>
+        <v>4368102091.227995</v>
       </c>
       <c r="E34" t="n">
-        <v>0.09474444607160562</v>
+        <v>0.06949930225882418</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02555735909613423</v>
+        <v>0.05568324290850434</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>804</v>
+        <v>938</v>
       </c>
       <c r="D35" t="n">
-        <v>3889800264.125465</v>
+        <v>1226673202.830302</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1454174302137187</v>
+        <v>0.1311915162852933</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04260653183463014</v>
+        <v>0.02660292357705068</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1646,19 +1646,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>855</v>
+        <v>979</v>
       </c>
       <c r="D36" t="n">
-        <v>2597316192.745532</v>
+        <v>1595569263.7679</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1143454130317604</v>
+        <v>0.1289736552332433</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04112661427029198</v>
+        <v>0.03712086680377116</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1680,22 +1680,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1112</v>
+        <v>770</v>
       </c>
       <c r="D37" t="n">
-        <v>4729353368.483898</v>
+        <v>1208466801.666117</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1872837705419661</v>
+        <v>0.1403255715006707</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04043007368378709</v>
+        <v>0.01777024547432659</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1714,16 +1714,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>940</v>
+        <v>1171</v>
       </c>
       <c r="D38" t="n">
-        <v>3273004441.305079</v>
+        <v>1169422352.398331</v>
       </c>
       <c r="E38" t="n">
-        <v>0.06430585950923598</v>
+        <v>0.1164973238094453</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03350179641246848</v>
+        <v>0.03353618419297573</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -1748,19 +1748,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D39" t="n">
-        <v>4941502077.235066</v>
+        <v>2916001722.290958</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1145270730925584</v>
+        <v>0.1125552299383388</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02101252388627897</v>
+        <v>0.03205427927561156</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1782,19 +1782,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1157</v>
+        <v>1007</v>
       </c>
       <c r="D40" t="n">
-        <v>3543723186.771435</v>
+        <v>3372436854.030476</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1027637785038583</v>
+        <v>0.1114199571496276</v>
       </c>
       <c r="F40" t="n">
-        <v>0.04965068366552044</v>
+        <v>0.03077441477913934</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
@@ -1816,22 +1816,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1098</v>
+        <v>1120</v>
       </c>
       <c r="D41" t="n">
-        <v>2034069849.342273</v>
+        <v>4742972568.355958</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1249476181397277</v>
+        <v>0.1837725775846871</v>
       </c>
       <c r="F41" t="n">
-        <v>0.036016370404081</v>
+        <v>0.04288652747721104</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>971</v>
+        <v>1036</v>
       </c>
       <c r="D42" t="n">
-        <v>1351701724.529171</v>
+        <v>2274145915.036761</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1040966619124559</v>
+        <v>0.07381669169544405</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03124053614603577</v>
+        <v>0.04601309791908496</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1884,19 +1884,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>881</v>
+        <v>988</v>
       </c>
       <c r="D43" t="n">
-        <v>3925993184.942101</v>
+        <v>2726590117.781357</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1159456147461817</v>
+        <v>0.08815313275987097</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02464473051562296</v>
+        <v>0.02326674420744721</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1918,16 +1918,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>897</v>
+        <v>924</v>
       </c>
       <c r="D44" t="n">
-        <v>956230780.3726722</v>
+        <v>3618924250.49285</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1979580739779405</v>
+        <v>0.0990747689099571</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03648278893076758</v>
+        <v>0.02391087486421212</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -1952,19 +1952,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1028</v>
+        <v>954</v>
       </c>
       <c r="D45" t="n">
-        <v>1278901380.523248</v>
+        <v>2424113092.096972</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1469992821567292</v>
+        <v>0.1221467263566341</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03306746843093614</v>
+        <v>0.02252239885590437</v>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1986,19 +1986,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1009</v>
+        <v>886</v>
       </c>
       <c r="D46" t="n">
-        <v>1598836351.555481</v>
+        <v>4258664767.727359</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0907387278754218</v>
+        <v>0.1370230682061967</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03926661143549606</v>
+        <v>0.02370110515353254</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1073</v>
+        <v>918</v>
       </c>
       <c r="D47" t="n">
-        <v>5150732406.853369</v>
+        <v>5502842496.93114</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1049239181683465</v>
+        <v>0.1129068094681941</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04004599060691862</v>
+        <v>0.03275219404764752</v>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2054,19 +2054,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1018</v>
+        <v>1032</v>
       </c>
       <c r="D48" t="n">
-        <v>1738093773.237605</v>
+        <v>1835239309.759605</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1334362451110352</v>
+        <v>0.06942044263440637</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02455345915712996</v>
+        <v>0.03216191291356948</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -2088,19 +2088,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1015</v>
+        <v>985</v>
       </c>
       <c r="D49" t="n">
-        <v>4143992165.174808</v>
+        <v>3807018629.761213</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1532662509931937</v>
+        <v>0.1006076175362451</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01909140861192286</v>
+        <v>0.02322875704410063</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -2122,19 +2122,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>974</v>
+        <v>938</v>
       </c>
       <c r="D50" t="n">
-        <v>2746386098.596277</v>
+        <v>1304823062.383705</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1396401925116137</v>
+        <v>0.1733873711048222</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02098176921648196</v>
+        <v>0.03062873069859245</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -2156,19 +2156,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>900</v>
+        <v>1149</v>
       </c>
       <c r="D51" t="n">
-        <v>2528058383.024756</v>
+        <v>2612063607.355794</v>
       </c>
       <c r="E51" t="n">
-        <v>0.12040311097682</v>
+        <v>0.09924447709220181</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03570175028332636</v>
+        <v>0.0434775333815399</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
